--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Fiets.xlsx
@@ -391,13 +391,13 @@
         <v>11494.68109279279</v>
       </c>
       <c r="C2">
-        <v>11842.59277338224</v>
+        <v>11842.59277338223</v>
       </c>
       <c r="D2">
         <v>10337.50707520374</v>
       </c>
       <c r="E2">
-        <v>8587.975139684129</v>
+        <v>8587.975139684131</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,13 +405,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10950.32931112399</v>
+        <v>10950.32931112398</v>
       </c>
       <c r="C3">
-        <v>11318.6085332816</v>
+        <v>11318.60853328159</v>
       </c>
       <c r="D3">
-        <v>9888.979427229957</v>
+        <v>9888.97942722996</v>
       </c>
       <c r="E3">
         <v>8159.802813574675</v>
@@ -425,7 +425,7 @@
         <v>8997.387597248784</v>
       </c>
       <c r="C4">
-        <v>9288.974115111509</v>
+        <v>9288.974115111512</v>
       </c>
       <c r="D4">
         <v>8198.599991339916</v>
@@ -442,7 +442,7 @@
         <v>8997.387597248784</v>
       </c>
       <c r="C5">
-        <v>9288.974115111509</v>
+        <v>9288.974115111512</v>
       </c>
       <c r="D5">
         <v>8198.599991339916</v>
@@ -459,7 +459,7 @@
         <v>8997.387597248784</v>
       </c>
       <c r="C6">
-        <v>9288.974115111509</v>
+        <v>9288.974115111512</v>
       </c>
       <c r="D6">
         <v>8198.599991339916</v>
@@ -473,13 +473,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10950.32931112399</v>
+        <v>10950.32931112398</v>
       </c>
       <c r="C7">
-        <v>11318.6085332816</v>
+        <v>11318.60853328159</v>
       </c>
       <c r="D7">
-        <v>9888.979427229957</v>
+        <v>9888.97942722996</v>
       </c>
       <c r="E7">
         <v>8159.802813574675</v>
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10950.32931112399</v>
+        <v>10950.32931112398</v>
       </c>
       <c r="C8">
-        <v>11318.6085332816</v>
+        <v>11318.60853328159</v>
       </c>
       <c r="D8">
-        <v>9888.979427229957</v>
+        <v>9888.97942722996</v>
       </c>
       <c r="E8">
         <v>8159.802813574675</v>
@@ -507,13 +507,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10950.32931112399</v>
+        <v>10950.32931112398</v>
       </c>
       <c r="C9">
-        <v>11318.6085332816</v>
+        <v>11318.60853328159</v>
       </c>
       <c r="D9">
-        <v>9888.979427229957</v>
+        <v>9888.97942722996</v>
       </c>
       <c r="E9">
         <v>8159.802813574675</v>
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10950.32931112399</v>
+        <v>10950.32931112398</v>
       </c>
       <c r="C10">
-        <v>11318.6085332816</v>
+        <v>11318.60853328159</v>
       </c>
       <c r="D10">
-        <v>9888.979427229957</v>
+        <v>9888.97942722996</v>
       </c>
       <c r="E10">
         <v>8159.802813574675</v>
@@ -541,13 +541,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10950.32931112399</v>
+        <v>10950.32931112398</v>
       </c>
       <c r="C11">
-        <v>11318.6085332816</v>
+        <v>11318.60853328159</v>
       </c>
       <c r="D11">
-        <v>9888.979427229957</v>
+        <v>9888.97942722996</v>
       </c>
       <c r="E11">
         <v>8159.802813574675</v>
@@ -561,7 +561,7 @@
         <v>8997.387597248784</v>
       </c>
       <c r="C12">
-        <v>9288.974115111509</v>
+        <v>9288.974115111512</v>
       </c>
       <c r="D12">
         <v>8198.599991339916</v>
@@ -575,13 +575,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10950.32931112399</v>
+        <v>10950.32931112398</v>
       </c>
       <c r="C13">
-        <v>11318.6085332816</v>
+        <v>11318.60853328159</v>
       </c>
       <c r="D13">
-        <v>9888.979427229957</v>
+        <v>9888.97942722996</v>
       </c>
       <c r="E13">
         <v>8159.802813574675</v>
@@ -595,7 +595,7 @@
         <v>8997.387597248784</v>
       </c>
       <c r="C14">
-        <v>9288.974115111509</v>
+        <v>9288.974115111512</v>
       </c>
       <c r="D14">
         <v>8198.599991339916</v>
@@ -609,13 +609,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10950.32931112399</v>
+        <v>10950.32931112398</v>
       </c>
       <c r="C15">
-        <v>11318.6085332816</v>
+        <v>11318.60853328159</v>
       </c>
       <c r="D15">
-        <v>9888.979427229957</v>
+        <v>9888.97942722996</v>
       </c>
       <c r="E15">
         <v>8159.802813574675</v>
@@ -629,13 +629,13 @@
         <v>11494.68109279279</v>
       </c>
       <c r="C16">
-        <v>11842.59277338224</v>
+        <v>11842.59277338223</v>
       </c>
       <c r="D16">
         <v>10337.50707520374</v>
       </c>
       <c r="E16">
-        <v>8587.975139684129</v>
+        <v>8587.975139684131</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,7 +646,7 @@
         <v>8997.387597248784</v>
       </c>
       <c r="C17">
-        <v>9288.974115111509</v>
+        <v>9288.974115111512</v>
       </c>
       <c r="D17">
         <v>8198.599991339916</v>
@@ -660,13 +660,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>10950.32931112399</v>
+        <v>10950.32931112398</v>
       </c>
       <c r="C18">
-        <v>11318.6085332816</v>
+        <v>11318.60853328159</v>
       </c>
       <c r="D18">
-        <v>9888.979427229957</v>
+        <v>9888.97942722996</v>
       </c>
       <c r="E18">
         <v>8159.802813574675</v>
@@ -680,13 +680,13 @@
         <v>11494.68109279279</v>
       </c>
       <c r="C19">
-        <v>11842.59277338224</v>
+        <v>11842.59277338223</v>
       </c>
       <c r="D19">
         <v>10337.50707520374</v>
       </c>
       <c r="E19">
-        <v>8587.975139684129</v>
+        <v>8587.975139684131</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -697,13 +697,13 @@
         <v>11494.68109279279</v>
       </c>
       <c r="C20">
-        <v>11842.59277338224</v>
+        <v>11842.59277338223</v>
       </c>
       <c r="D20">
         <v>10337.50707520374</v>
       </c>
       <c r="E20">
-        <v>8587.975139684129</v>
+        <v>8587.975139684131</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -714,13 +714,13 @@
         <v>11494.68109279279</v>
       </c>
       <c r="C21">
-        <v>11842.59277338224</v>
+        <v>11842.59277338223</v>
       </c>
       <c r="D21">
         <v>10337.50707520374</v>
       </c>
       <c r="E21">
-        <v>8587.975139684129</v>
+        <v>8587.975139684131</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -728,13 +728,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>14729.90905106556</v>
+        <v>14729.90905106557</v>
       </c>
       <c r="C22">
-        <v>15222.21336052286</v>
+        <v>15222.21336052287</v>
       </c>
       <c r="D22">
-        <v>13141.61525768329</v>
+        <v>13141.6152576833</v>
       </c>
       <c r="E22">
         <v>10876.88917304645</v>
@@ -748,13 +748,13 @@
         <v>11494.68109279279</v>
       </c>
       <c r="C23">
-        <v>11842.59277338224</v>
+        <v>11842.59277338223</v>
       </c>
       <c r="D23">
         <v>10337.50707520374</v>
       </c>
       <c r="E23">
-        <v>8587.975139684129</v>
+        <v>8587.975139684131</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -762,13 +762,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6968.432576168739</v>
+        <v>6968.432576168741</v>
       </c>
       <c r="C24">
-        <v>7142.109709416294</v>
+        <v>7142.109709416295</v>
       </c>
       <c r="D24">
-        <v>6324.401608058618</v>
+        <v>6324.40160805862</v>
       </c>
       <c r="E24">
         <v>5320.631600184499</v>
@@ -779,13 +779,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>6968.432576168739</v>
+        <v>6968.432576168741</v>
       </c>
       <c r="C25">
-        <v>7142.109709416294</v>
+        <v>7142.109709416295</v>
       </c>
       <c r="D25">
-        <v>6324.401608058618</v>
+        <v>6324.40160805862</v>
       </c>
       <c r="E25">
         <v>5320.631600184499</v>
@@ -796,13 +796,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>6968.432576168739</v>
+        <v>6968.432576168741</v>
       </c>
       <c r="C26">
-        <v>7142.109709416294</v>
+        <v>7142.109709416295</v>
       </c>
       <c r="D26">
-        <v>6324.401608058618</v>
+        <v>6324.40160805862</v>
       </c>
       <c r="E26">
         <v>5320.631600184499</v>
@@ -822,7 +822,7 @@
         <v>12254.36898286102</v>
       </c>
       <c r="E27">
-        <v>9813.632344431082</v>
+        <v>9813.632344431078</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -839,7 +839,7 @@
         <v>12254.36898286102</v>
       </c>
       <c r="E28">
-        <v>9813.632344431082</v>
+        <v>9813.632344431078</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -856,7 +856,7 @@
         <v>12254.36898286102</v>
       </c>
       <c r="E29">
-        <v>9813.632344431082</v>
+        <v>9813.632344431078</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -864,13 +864,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>22665.07067931778</v>
+        <v>22665.07067931776</v>
       </c>
       <c r="C30">
-        <v>22274.93145678069</v>
+        <v>22274.93145678067</v>
       </c>
       <c r="D30">
-        <v>21492.29053364052</v>
+        <v>21492.29053364053</v>
       </c>
       <c r="E30">
         <v>24350.22991665601</v>
@@ -881,13 +881,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>22665.07067931778</v>
+        <v>22665.07067931776</v>
       </c>
       <c r="C31">
-        <v>22274.93145678069</v>
+        <v>22274.93145678067</v>
       </c>
       <c r="D31">
-        <v>21492.29053364052</v>
+        <v>21492.29053364053</v>
       </c>
       <c r="E31">
         <v>24350.22991665601</v>
@@ -898,13 +898,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>22665.07067931778</v>
+        <v>22665.07067931776</v>
       </c>
       <c r="C32">
-        <v>22274.93145678069</v>
+        <v>22274.93145678067</v>
       </c>
       <c r="D32">
-        <v>21492.29053364052</v>
+        <v>21492.29053364053</v>
       </c>
       <c r="E32">
         <v>24350.22991665601</v>
@@ -915,13 +915,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>22665.07067931778</v>
+        <v>22665.07067931776</v>
       </c>
       <c r="C33">
-        <v>22274.93145678069</v>
+        <v>22274.93145678067</v>
       </c>
       <c r="D33">
-        <v>21492.29053364052</v>
+        <v>21492.29053364053</v>
       </c>
       <c r="E33">
         <v>24350.22991665601</v>
@@ -932,10 +932,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>27989.42219244299</v>
+        <v>27989.422192443</v>
       </c>
       <c r="C34">
-        <v>27589.83668616772</v>
+        <v>27589.8366861677</v>
       </c>
       <c r="D34">
         <v>26659.55463703331</v>
@@ -952,13 +952,13 @@
         <v>28723.92479501469</v>
       </c>
       <c r="C35">
-        <v>28341.95161597758</v>
+        <v>28341.95161597757</v>
       </c>
       <c r="D35">
         <v>27530.03863947449</v>
       </c>
       <c r="E35">
-        <v>31350.5749165414</v>
+        <v>31350.57491654141</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -969,13 +969,13 @@
         <v>18829.41819476263</v>
       </c>
       <c r="C36">
-        <v>18461.88091789607</v>
+        <v>18461.88091789606</v>
       </c>
       <c r="D36">
         <v>17831.95182910663</v>
       </c>
       <c r="E36">
-        <v>20303.83918517448</v>
+        <v>20303.83918517449</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -986,13 +986,13 @@
         <v>23066.69522200381</v>
       </c>
       <c r="C37">
-        <v>22641.49920169555</v>
+        <v>22641.49920169554</v>
       </c>
       <c r="D37">
         <v>21968.30601010539</v>
       </c>
       <c r="E37">
-        <v>25302.58970279737</v>
+        <v>25302.5897027974</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,13 +1003,13 @@
         <v>23066.69522200381</v>
       </c>
       <c r="C38">
-        <v>22641.49920169555</v>
+        <v>22641.49920169554</v>
       </c>
       <c r="D38">
         <v>21968.30601010539</v>
       </c>
       <c r="E38">
-        <v>25302.58970279737</v>
+        <v>25302.5897027974</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1017,10 +1017,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>27989.42219244299</v>
+        <v>27989.422192443</v>
       </c>
       <c r="C39">
-        <v>27589.83668616772</v>
+        <v>27589.8366861677</v>
       </c>
       <c r="D39">
         <v>26659.55463703331</v>
@@ -1037,13 +1037,13 @@
         <v>28723.92479501469</v>
       </c>
       <c r="C40">
-        <v>28341.95161597758</v>
+        <v>28341.95161597757</v>
       </c>
       <c r="D40">
         <v>27530.03863947449</v>
       </c>
       <c r="E40">
-        <v>31350.5749165414</v>
+        <v>31350.57491654141</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1054,13 +1054,13 @@
         <v>28723.92479501469</v>
       </c>
       <c r="C41">
-        <v>28341.95161597758</v>
+        <v>28341.95161597757</v>
       </c>
       <c r="D41">
         <v>27530.03863947449</v>
       </c>
       <c r="E41">
-        <v>31350.5749165414</v>
+        <v>31350.57491654141</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1071,13 +1071,13 @@
         <v>20186.77158217524</v>
       </c>
       <c r="C42">
-        <v>19762.16880838489</v>
+        <v>19762.16880838488</v>
       </c>
       <c r="D42">
-        <v>19186.47672216489</v>
+        <v>19186.4767221649</v>
       </c>
       <c r="E42">
-        <v>22236.66693659909</v>
+        <v>22236.6669365991</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1088,13 +1088,13 @@
         <v>20186.77158217524</v>
       </c>
       <c r="C43">
-        <v>19762.16880838489</v>
+        <v>19762.16880838488</v>
       </c>
       <c r="D43">
-        <v>19186.47672216489</v>
+        <v>19186.4767221649</v>
       </c>
       <c r="E43">
-        <v>22236.66693659909</v>
+        <v>22236.6669365991</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1102,13 +1102,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>18733.40155460079</v>
+        <v>18733.4015546008</v>
       </c>
       <c r="C44">
         <v>18397.74433521843</v>
       </c>
       <c r="D44">
-        <v>17704.14725579031</v>
+        <v>17704.14725579034</v>
       </c>
       <c r="E44">
         <v>19887.15779159957</v>
@@ -1119,7 +1119,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>18178.68244006824</v>
+        <v>18178.68244006825</v>
       </c>
       <c r="C45">
         <v>17776.63382626797</v>
@@ -1139,13 +1139,13 @@
         <v>23066.69522200381</v>
       </c>
       <c r="C46">
-        <v>22641.49920169555</v>
+        <v>22641.49920169554</v>
       </c>
       <c r="D46">
         <v>21968.30601010539</v>
       </c>
       <c r="E46">
-        <v>25302.58970279737</v>
+        <v>25302.5897027974</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1156,13 +1156,13 @@
         <v>18829.41819476263</v>
       </c>
       <c r="C47">
-        <v>18461.88091789607</v>
+        <v>18461.88091789606</v>
       </c>
       <c r="D47">
         <v>17831.95182910663</v>
       </c>
       <c r="E47">
-        <v>20303.83918517448</v>
+        <v>20303.83918517449</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1170,7 +1170,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>18178.68244006824</v>
+        <v>18178.68244006825</v>
       </c>
       <c r="C48">
         <v>17776.63382626797</v>
@@ -1196,7 +1196,7 @@
         <v>12644.38288085009</v>
       </c>
       <c r="E49">
-        <v>9863.1007039218</v>
+        <v>9863.100703921804</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1210,10 +1210,10 @@
         <v>14679.75339931009</v>
       </c>
       <c r="D50">
-        <v>12674.5963254003</v>
+        <v>12674.59632540029</v>
       </c>
       <c r="E50">
-        <v>10006.39191766061</v>
+        <v>10006.39191766062</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1227,7 +1227,7 @@
         <v>11044.80232010559</v>
       </c>
       <c r="D51">
-        <v>9531.38021353212</v>
+        <v>9531.380213532117</v>
       </c>
       <c r="E51">
         <v>7541.904888569584</v>
@@ -1238,16 +1238,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>10816.36262796581</v>
+        <v>10816.3626279658</v>
       </c>
       <c r="C52">
         <v>11446.22448515448</v>
       </c>
       <c r="D52">
-        <v>9822.785369488147</v>
+        <v>9822.785369488145</v>
       </c>
       <c r="E52">
-        <v>7736.028696727602</v>
+        <v>7736.028696727601</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1264,7 +1264,7 @@
         <v>10267.49574818667</v>
       </c>
       <c r="E53">
-        <v>8129.121692880955</v>
+        <v>8129.121692880956</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1278,7 +1278,7 @@
         <v>11044.80232010559</v>
       </c>
       <c r="D54">
-        <v>9531.38021353212</v>
+        <v>9531.380213532117</v>
       </c>
       <c r="E54">
         <v>7541.904888569584</v>
@@ -1295,10 +1295,10 @@
         <v>14679.75339931009</v>
       </c>
       <c r="D55">
-        <v>12674.5963254003</v>
+        <v>12674.59632540029</v>
       </c>
       <c r="E55">
-        <v>10006.39191766061</v>
+        <v>10006.39191766062</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1309,13 +1309,13 @@
         <v>15946.75221816188</v>
       </c>
       <c r="C56">
-        <v>16988.79970916851</v>
+        <v>16988.7997091685</v>
       </c>
       <c r="D56">
         <v>14606.71845141134</v>
       </c>
       <c r="E56">
-        <v>11447.9666043477</v>
+        <v>11447.96660434769</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1329,7 +1329,7 @@
         <v>10585.28971673582</v>
       </c>
       <c r="D57">
-        <v>9204.612266820483</v>
+        <v>9204.612266820479</v>
       </c>
       <c r="E57">
         <v>7386.180760818761</v>
@@ -1374,16 +1374,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>8607.507185578259</v>
+        <v>8607.507185578263</v>
       </c>
       <c r="C60">
-        <v>8986.636107159378</v>
+        <v>8986.636107159376</v>
       </c>
       <c r="D60">
-        <v>7944.706505227612</v>
+        <v>7944.706505227618</v>
       </c>
       <c r="E60">
-        <v>6542.22534429458</v>
+        <v>6542.225344294579</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1391,16 +1391,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>8607.507185578259</v>
+        <v>8607.507185578263</v>
       </c>
       <c r="C61">
-        <v>8986.636107159378</v>
+        <v>8986.636107159376</v>
       </c>
       <c r="D61">
-        <v>7944.706505227612</v>
+        <v>7944.706505227618</v>
       </c>
       <c r="E61">
-        <v>6542.22534429458</v>
+        <v>6542.225344294579</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>3059.102482218548</v>
+        <v>3059.102482218547</v>
       </c>
       <c r="C62">
-        <v>3049.958694914412</v>
+        <v>3049.958694914411</v>
       </c>
       <c r="D62">
         <v>2630.2528094572</v>
@@ -1425,10 +1425,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>3059.102482218548</v>
+        <v>3059.102482218547</v>
       </c>
       <c r="C63">
-        <v>3049.958694914412</v>
+        <v>3049.958694914411</v>
       </c>
       <c r="D63">
         <v>2630.2528094572</v>
@@ -1448,7 +1448,7 @@
         <v>1654.275320752039</v>
       </c>
       <c r="D64">
-        <v>1407.803063633333</v>
+        <v>1407.803063633332</v>
       </c>
       <c r="E64">
         <v>1177.724091855921</v>
@@ -1465,7 +1465,7 @@
         <v>1654.275320752039</v>
       </c>
       <c r="D65">
-        <v>1407.803063633333</v>
+        <v>1407.803063633332</v>
       </c>
       <c r="E65">
         <v>1177.724091855921</v>
@@ -1564,7 +1564,7 @@
         <v>13204.56198027721</v>
       </c>
       <c r="C71">
-        <v>13095.38797730041</v>
+        <v>13095.3879773004</v>
       </c>
       <c r="D71">
         <v>12499.10272381931</v>
@@ -1635,7 +1635,7 @@
         <v>8901.742874979755</v>
       </c>
       <c r="D75">
-        <v>8406.418465094734</v>
+        <v>8406.418465094737</v>
       </c>
       <c r="E75">
         <v>8357.26940250796</v>
@@ -1740,7 +1740,7 @@
         <v>19234.42878976905</v>
       </c>
       <c r="E81">
-        <v>21343.99594302115</v>
+        <v>21343.99594302116</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1757,7 +1757,7 @@
         <v>19234.42878976905</v>
       </c>
       <c r="E82">
-        <v>21343.99594302115</v>
+        <v>21343.99594302116</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1768,7 +1768,7 @@
         <v>12548.05824041648</v>
       </c>
       <c r="C83">
-        <v>12320.4647896333</v>
+        <v>12320.46478963331</v>
       </c>
       <c r="D83">
         <v>11988.73660880029</v>
@@ -1785,7 +1785,7 @@
         <v>12548.05824041648</v>
       </c>
       <c r="C84">
-        <v>12320.4647896333</v>
+        <v>12320.46478963331</v>
       </c>
       <c r="D84">
         <v>11988.73660880029</v>
@@ -1805,7 +1805,7 @@
         <v>20398.72943195264</v>
       </c>
       <c r="D85">
-        <v>19836.76953193024</v>
+        <v>19836.76953193023</v>
       </c>
       <c r="E85">
         <v>23131.75850422481</v>
@@ -1822,7 +1822,7 @@
         <v>20398.72943195264</v>
       </c>
       <c r="D86">
-        <v>19836.76953193024</v>
+        <v>19836.76953193023</v>
       </c>
       <c r="E86">
         <v>23131.75850422481</v>
@@ -1836,7 +1836,7 @@
         <v>20343.62173861605</v>
       </c>
       <c r="C87">
-        <v>19812.21758700645</v>
+        <v>19812.21758700647</v>
       </c>
       <c r="D87">
         <v>19399.07036555387</v>
@@ -1853,7 +1853,7 @@
         <v>20343.62173861605</v>
       </c>
       <c r="C88">
-        <v>19812.21758700645</v>
+        <v>19812.21758700647</v>
       </c>
       <c r="D88">
         <v>19399.07036555387</v>
@@ -1870,7 +1870,7 @@
         <v>20343.62173861605</v>
       </c>
       <c r="C89">
-        <v>19812.21758700645</v>
+        <v>19812.21758700647</v>
       </c>
       <c r="D89">
         <v>19399.07036555387</v>
@@ -1884,13 +1884,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>44253.44832373517</v>
+        <v>44253.44832373515</v>
       </c>
       <c r="C90">
         <v>43425.20136333937</v>
       </c>
       <c r="D90">
-        <v>42289.33652838296</v>
+        <v>42289.33652838295</v>
       </c>
       <c r="E90">
         <v>48180.74404063755</v>
@@ -1901,13 +1901,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>44253.44832373517</v>
+        <v>44253.44832373515</v>
       </c>
       <c r="C91">
         <v>43425.20136333937</v>
       </c>
       <c r="D91">
-        <v>42289.33652838296</v>
+        <v>42289.33652838295</v>
       </c>
       <c r="E91">
         <v>48180.74404063755</v>
@@ -1918,13 +1918,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>44253.44832373517</v>
+        <v>44253.44832373515</v>
       </c>
       <c r="C92">
         <v>43425.20136333937</v>
       </c>
       <c r="D92">
-        <v>42289.33652838296</v>
+        <v>42289.33652838295</v>
       </c>
       <c r="E92">
         <v>48180.74404063755</v>
@@ -1935,13 +1935,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>44253.44832373517</v>
+        <v>44253.44832373515</v>
       </c>
       <c r="C93">
         <v>43425.20136333937</v>
       </c>
       <c r="D93">
-        <v>42289.33652838296</v>
+        <v>42289.33652838295</v>
       </c>
       <c r="E93">
         <v>48180.74404063755</v>
@@ -1952,16 +1952,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>44748.33429798677</v>
+        <v>44748.33429798674</v>
       </c>
       <c r="C94">
-        <v>44004.73122802854</v>
+        <v>44004.73122802853</v>
       </c>
       <c r="D94">
-        <v>42923.06001084369</v>
+        <v>42923.06001084368</v>
       </c>
       <c r="E94">
-        <v>48861.06542527896</v>
+        <v>48861.06542527892</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1969,13 +1969,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>44253.44832373517</v>
+        <v>44253.44832373515</v>
       </c>
       <c r="C95">
         <v>43425.20136333937</v>
       </c>
       <c r="D95">
-        <v>42289.33652838296</v>
+        <v>42289.33652838295</v>
       </c>
       <c r="E95">
         <v>48180.74404063755</v>
@@ -1986,13 +1986,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>44253.44832373517</v>
+        <v>44253.44832373515</v>
       </c>
       <c r="C96">
         <v>43425.20136333937</v>
       </c>
       <c r="D96">
-        <v>42289.33652838296</v>
+        <v>42289.33652838295</v>
       </c>
       <c r="E96">
         <v>48180.74404063755</v>
@@ -2003,13 +2003,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>44253.44832373517</v>
+        <v>44253.44832373515</v>
       </c>
       <c r="C97">
         <v>43425.20136333937</v>
       </c>
       <c r="D97">
-        <v>42289.33652838296</v>
+        <v>42289.33652838295</v>
       </c>
       <c r="E97">
         <v>48180.74404063755</v>
@@ -2023,13 +2023,13 @@
         <v>42084.52825833538</v>
       </c>
       <c r="C98">
-        <v>41152.31700185674</v>
+        <v>41152.31700185673</v>
       </c>
       <c r="D98">
-        <v>39811.40982276295</v>
+        <v>39811.40982276297</v>
       </c>
       <c r="E98">
-        <v>44921.02835946162</v>
+        <v>44921.02835946164</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2040,13 +2040,13 @@
         <v>42084.52825833538</v>
       </c>
       <c r="C99">
-        <v>41152.31700185674</v>
+        <v>41152.31700185673</v>
       </c>
       <c r="D99">
-        <v>39811.40982276295</v>
+        <v>39811.40982276297</v>
       </c>
       <c r="E99">
-        <v>44921.02835946162</v>
+        <v>44921.02835946164</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2057,13 +2057,13 @@
         <v>43794.81485952177</v>
       </c>
       <c r="C100">
-        <v>42968.12383849378</v>
+        <v>42968.1238384938</v>
       </c>
       <c r="D100">
         <v>41847.17758613949</v>
       </c>
       <c r="E100">
-        <v>47574.67620726</v>
+        <v>47574.67620725999</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2074,13 +2074,13 @@
         <v>43794.81485952177</v>
       </c>
       <c r="C101">
-        <v>42968.12383849378</v>
+        <v>42968.1238384938</v>
       </c>
       <c r="D101">
         <v>41847.17758613949</v>
       </c>
       <c r="E101">
-        <v>47574.67620726</v>
+        <v>47574.67620725999</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2091,13 +2091,13 @@
         <v>43794.81485952177</v>
       </c>
       <c r="C102">
-        <v>42968.12383849378</v>
+        <v>42968.1238384938</v>
       </c>
       <c r="D102">
         <v>41847.17758613949</v>
       </c>
       <c r="E102">
-        <v>47574.67620726</v>
+        <v>47574.67620725999</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2105,16 +2105,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>39732.14635199479</v>
+        <v>39732.14635199481</v>
       </c>
       <c r="C103">
-        <v>38774.33431699916</v>
+        <v>38774.33431699917</v>
       </c>
       <c r="D103">
-        <v>37608.06837255227</v>
+        <v>37608.06837255228</v>
       </c>
       <c r="E103">
-        <v>42672.35763386608</v>
+        <v>42672.35763386606</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2122,16 +2122,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>39732.14635199479</v>
+        <v>39732.14635199481</v>
       </c>
       <c r="C104">
-        <v>38774.33431699916</v>
+        <v>38774.33431699917</v>
       </c>
       <c r="D104">
-        <v>37608.06837255227</v>
+        <v>37608.06837255228</v>
       </c>
       <c r="E104">
-        <v>42672.35763386608</v>
+        <v>42672.35763386606</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2142,13 +2142,13 @@
         <v>41292.16305999915</v>
       </c>
       <c r="C105">
-        <v>40395.79231613987</v>
+        <v>40395.79231613986</v>
       </c>
       <c r="D105">
-        <v>39278.51218565287</v>
+        <v>39278.51218565288</v>
       </c>
       <c r="E105">
-        <v>44607.69329735708</v>
+        <v>44607.69329735706</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2156,16 +2156,16 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>39732.14635199479</v>
+        <v>39732.14635199481</v>
       </c>
       <c r="C106">
-        <v>38774.33431699916</v>
+        <v>38774.33431699917</v>
       </c>
       <c r="D106">
-        <v>37608.06837255227</v>
+        <v>37608.06837255228</v>
       </c>
       <c r="E106">
-        <v>42672.35763386608</v>
+        <v>42672.35763386606</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2173,16 +2173,16 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>39732.14635199479</v>
+        <v>39732.14635199481</v>
       </c>
       <c r="C107">
-        <v>38774.33431699916</v>
+        <v>38774.33431699917</v>
       </c>
       <c r="D107">
-        <v>37608.06837255227</v>
+        <v>37608.06837255228</v>
       </c>
       <c r="E107">
-        <v>42672.35763386608</v>
+        <v>42672.35763386606</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2193,13 +2193,13 @@
         <v>41292.16305999915</v>
       </c>
       <c r="C108">
-        <v>40395.79231613987</v>
+        <v>40395.79231613986</v>
       </c>
       <c r="D108">
-        <v>39278.51218565287</v>
+        <v>39278.51218565288</v>
       </c>
       <c r="E108">
-        <v>44607.69329735708</v>
+        <v>44607.69329735706</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2210,7 +2210,7 @@
         <v>39116.40830810628</v>
       </c>
       <c r="C109">
-        <v>38129.13463175902</v>
+        <v>38129.13463175901</v>
       </c>
       <c r="D109">
         <v>36581.47083142541</v>
@@ -2227,7 +2227,7 @@
         <v>39116.40830810628</v>
       </c>
       <c r="C110">
-        <v>38129.13463175902</v>
+        <v>38129.13463175901</v>
       </c>
       <c r="D110">
         <v>36581.47083142541</v>
@@ -2244,7 +2244,7 @@
         <v>39116.40830810628</v>
       </c>
       <c r="C111">
-        <v>38129.13463175902</v>
+        <v>38129.13463175901</v>
       </c>
       <c r="D111">
         <v>36581.47083142541</v>
@@ -2261,13 +2261,13 @@
         <v>39717.55559998687</v>
       </c>
       <c r="C112">
-        <v>38728.45461697557</v>
+        <v>38728.45461697558</v>
       </c>
       <c r="D112">
-        <v>37353.43186777575</v>
+        <v>37353.43186777574</v>
       </c>
       <c r="E112">
-        <v>42032.44232251445</v>
+        <v>42032.44232251444</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2278,13 +2278,13 @@
         <v>38291.98462212549</v>
       </c>
       <c r="C113">
-        <v>37272.25521565345</v>
+        <v>37272.25521565347</v>
       </c>
       <c r="D113">
-        <v>35855.44521584763</v>
+        <v>35855.44521584762</v>
       </c>
       <c r="E113">
-        <v>40297.11765319682</v>
+        <v>40297.11765319683</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2295,13 +2295,13 @@
         <v>38291.98462212549</v>
       </c>
       <c r="C114">
-        <v>37272.25521565345</v>
+        <v>37272.25521565347</v>
       </c>
       <c r="D114">
-        <v>35855.44521584763</v>
+        <v>35855.44521584762</v>
       </c>
       <c r="E114">
-        <v>40297.11765319682</v>
+        <v>40297.11765319683</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2312,13 +2312,13 @@
         <v>39717.55559998687</v>
       </c>
       <c r="C115">
-        <v>38728.45461697557</v>
+        <v>38728.45461697558</v>
       </c>
       <c r="D115">
-        <v>37353.43186777575</v>
+        <v>37353.43186777574</v>
       </c>
       <c r="E115">
-        <v>42032.44232251445</v>
+        <v>42032.44232251444</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2329,13 +2329,13 @@
         <v>39717.55559998687</v>
       </c>
       <c r="C116">
-        <v>38728.45461697557</v>
+        <v>38728.45461697558</v>
       </c>
       <c r="D116">
-        <v>37353.43186777575</v>
+        <v>37353.43186777574</v>
       </c>
       <c r="E116">
-        <v>42032.44232251445</v>
+        <v>42032.44232251444</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2346,13 +2346,13 @@
         <v>38291.98462212549</v>
       </c>
       <c r="C117">
-        <v>37272.25521565345</v>
+        <v>37272.25521565347</v>
       </c>
       <c r="D117">
-        <v>35855.44521584763</v>
+        <v>35855.44521584762</v>
       </c>
       <c r="E117">
-        <v>40297.11765319682</v>
+        <v>40297.11765319683</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2363,13 +2363,13 @@
         <v>38291.98462212549</v>
       </c>
       <c r="C118">
-        <v>37272.25521565345</v>
+        <v>37272.25521565347</v>
       </c>
       <c r="D118">
-        <v>35855.44521584763</v>
+        <v>35855.44521584762</v>
       </c>
       <c r="E118">
-        <v>40297.11765319682</v>
+        <v>40297.11765319683</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2383,10 +2383,10 @@
         <v>35838.47449858026</v>
       </c>
       <c r="D119">
-        <v>34230.22871490002</v>
+        <v>34230.22871490005</v>
       </c>
       <c r="E119">
-        <v>38148.28286239717</v>
+        <v>38148.28286239716</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2394,16 +2394,16 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>43033.70597796927</v>
+        <v>43033.70597796926</v>
       </c>
       <c r="C120">
-        <v>42159.55706205586</v>
+        <v>42159.55706205583</v>
       </c>
       <c r="D120">
         <v>40771.21627083131</v>
       </c>
       <c r="E120">
-        <v>45961.26561360343</v>
+        <v>45961.26561360339</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2411,16 +2411,16 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>43033.70597796927</v>
+        <v>43033.70597796926</v>
       </c>
       <c r="C121">
-        <v>42159.55706205586</v>
+        <v>42159.55706205583</v>
       </c>
       <c r="D121">
         <v>40771.21627083131</v>
       </c>
       <c r="E121">
-        <v>45961.26561360343</v>
+        <v>45961.26561360339</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2428,13 +2428,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>41393.5776259807</v>
+        <v>41393.57762598069</v>
       </c>
       <c r="C122">
-        <v>40526.74189713958</v>
+        <v>40526.74189713956</v>
       </c>
       <c r="D122">
-        <v>38937.44910421145</v>
+        <v>38937.44910421144</v>
       </c>
       <c r="E122">
         <v>43412.13458598727</v>
@@ -2445,13 +2445,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>41393.5776259807</v>
+        <v>41393.57762598069</v>
       </c>
       <c r="C123">
-        <v>40526.74189713958</v>
+        <v>40526.74189713956</v>
       </c>
       <c r="D123">
-        <v>38937.44910421145</v>
+        <v>38937.44910421144</v>
       </c>
       <c r="E123">
         <v>43412.13458598727</v>
@@ -2462,13 +2462,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>41393.5776259807</v>
+        <v>41393.57762598069</v>
       </c>
       <c r="C124">
-        <v>40526.74189713958</v>
+        <v>40526.74189713956</v>
       </c>
       <c r="D124">
-        <v>38937.44910421145</v>
+        <v>38937.44910421144</v>
       </c>
       <c r="E124">
         <v>43412.13458598727</v>
@@ -2485,7 +2485,7 @@
         <v>40123.95181811113</v>
       </c>
       <c r="D125">
-        <v>38445.77122307654</v>
+        <v>38445.77122307655</v>
       </c>
       <c r="E125">
         <v>42597.41377296764</v>
@@ -2502,7 +2502,7 @@
         <v>40123.95181811113</v>
       </c>
       <c r="D126">
-        <v>38445.77122307654</v>
+        <v>38445.77122307655</v>
       </c>
       <c r="E126">
         <v>42597.41377296764</v>
@@ -2519,7 +2519,7 @@
         <v>41951.20013601764</v>
       </c>
       <c r="D127">
-        <v>40311.22551761658</v>
+        <v>40311.22551761656</v>
       </c>
       <c r="E127">
         <v>44836.15284079217</v>
@@ -2530,13 +2530,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>43039.60100947233</v>
+        <v>43039.60100947232</v>
       </c>
       <c r="C128">
         <v>42357.71413268722</v>
       </c>
       <c r="D128">
-        <v>40970.79852586064</v>
+        <v>40970.79852586066</v>
       </c>
       <c r="E128">
         <v>46000.3444408939</v>
@@ -2547,13 +2547,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>43039.60100947233</v>
+        <v>43039.60100947232</v>
       </c>
       <c r="C129">
         <v>42357.71413268722</v>
       </c>
       <c r="D129">
-        <v>40970.79852586064</v>
+        <v>40970.79852586066</v>
       </c>
       <c r="E129">
         <v>46000.3444408939</v>
@@ -2567,13 +2567,13 @@
         <v>44674.35875776312</v>
       </c>
       <c r="C130">
-        <v>44003.69298693473</v>
+        <v>44003.69298693471</v>
       </c>
       <c r="D130">
-        <v>43042.22936613976</v>
+        <v>43042.22936613977</v>
       </c>
       <c r="E130">
-        <v>49174.81624883698</v>
+        <v>49174.81624883697</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2584,13 +2584,13 @@
         <v>44674.35875776312</v>
       </c>
       <c r="C131">
-        <v>44003.69298693473</v>
+        <v>44003.69298693471</v>
       </c>
       <c r="D131">
-        <v>43042.22936613976</v>
+        <v>43042.22936613977</v>
       </c>
       <c r="E131">
-        <v>49174.81624883698</v>
+        <v>49174.81624883697</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2601,13 +2601,13 @@
         <v>44674.35875776312</v>
       </c>
       <c r="C132">
-        <v>44003.69298693473</v>
+        <v>44003.69298693471</v>
       </c>
       <c r="D132">
-        <v>43042.22936613976</v>
+        <v>43042.22936613977</v>
       </c>
       <c r="E132">
-        <v>49174.81624883698</v>
+        <v>49174.81624883697</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2618,13 +2618,13 @@
         <v>44674.35875776312</v>
       </c>
       <c r="C133">
-        <v>44003.69298693473</v>
+        <v>44003.69298693471</v>
       </c>
       <c r="D133">
-        <v>43042.22936613976</v>
+        <v>43042.22936613977</v>
       </c>
       <c r="E133">
-        <v>49174.81624883698</v>
+        <v>49174.81624883697</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2632,16 +2632,16 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>44748.33429798677</v>
+        <v>44748.33429798674</v>
       </c>
       <c r="C134">
-        <v>44004.73122802854</v>
+        <v>44004.73122802853</v>
       </c>
       <c r="D134">
-        <v>42923.06001084369</v>
+        <v>42923.06001084368</v>
       </c>
       <c r="E134">
-        <v>48861.06542527896</v>
+        <v>48861.06542527892</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2649,16 +2649,16 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>43989.35805550994</v>
+        <v>43989.35805550995</v>
       </c>
       <c r="C135">
-        <v>43395.28292987584</v>
+        <v>43395.28292987582</v>
       </c>
       <c r="D135">
         <v>42483.90610805214</v>
       </c>
       <c r="E135">
-        <v>48571.93511409598</v>
+        <v>48571.93511409597</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2669,13 +2669,13 @@
         <v>43803.95770746865</v>
       </c>
       <c r="C136">
-        <v>43242.36193717077</v>
+        <v>43242.36193717076</v>
       </c>
       <c r="D136">
-        <v>42235.53584156348</v>
+        <v>42235.53584156347</v>
       </c>
       <c r="E136">
-        <v>48033.57506854658</v>
+        <v>48033.57506854655</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2686,13 +2686,13 @@
         <v>43803.95770746865</v>
       </c>
       <c r="C137">
-        <v>43242.36193717077</v>
+        <v>43242.36193717076</v>
       </c>
       <c r="D137">
-        <v>42235.53584156348</v>
+        <v>42235.53584156347</v>
       </c>
       <c r="E137">
-        <v>48033.57506854658</v>
+        <v>48033.57506854655</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2703,13 +2703,13 @@
         <v>43803.95770746865</v>
       </c>
       <c r="C138">
-        <v>43242.36193717077</v>
+        <v>43242.36193717076</v>
       </c>
       <c r="D138">
-        <v>42235.53584156348</v>
+        <v>42235.53584156347</v>
       </c>
       <c r="E138">
-        <v>48033.57506854658</v>
+        <v>48033.57506854655</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2723,7 +2723,7 @@
         <v>42719.48523303562</v>
       </c>
       <c r="D139">
-        <v>41552.60694441767</v>
+        <v>41552.60694441768</v>
       </c>
       <c r="E139">
         <v>46989.73736439354</v>
@@ -2734,13 +2734,13 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>40918.60317674287</v>
+        <v>40918.60317674286</v>
       </c>
       <c r="C140">
-        <v>40491.3585413609</v>
+        <v>40491.35854136091</v>
       </c>
       <c r="D140">
-        <v>39486.34302350078</v>
+        <v>39486.34302350079</v>
       </c>
       <c r="E140">
         <v>44711.59878993809</v>
@@ -2757,7 +2757,7 @@
         <v>42719.48523303562</v>
       </c>
       <c r="D141">
-        <v>41552.60694441767</v>
+        <v>41552.60694441768</v>
       </c>
       <c r="E141">
         <v>46989.73736439354</v>
@@ -2774,7 +2774,7 @@
         <v>42719.48523303562</v>
       </c>
       <c r="D142">
-        <v>41552.60694441767</v>
+        <v>41552.60694441768</v>
       </c>
       <c r="E142">
         <v>46989.73736439354</v>
@@ -2785,13 +2785,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>43039.60100947233</v>
+        <v>43039.60100947232</v>
       </c>
       <c r="C143">
         <v>42357.71413268722</v>
       </c>
       <c r="D143">
-        <v>40970.79852586064</v>
+        <v>40970.79852586066</v>
       </c>
       <c r="E143">
         <v>46000.3444408939</v>
@@ -2802,13 +2802,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>43039.60100947233</v>
+        <v>43039.60100947232</v>
       </c>
       <c r="C144">
         <v>42357.71413268722</v>
       </c>
       <c r="D144">
-        <v>40970.79852586064</v>
+        <v>40970.79852586066</v>
       </c>
       <c r="E144">
         <v>46000.3444408939</v>
@@ -2819,13 +2819,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>43039.60100947233</v>
+        <v>43039.60100947232</v>
       </c>
       <c r="C145">
         <v>42357.71413268722</v>
       </c>
       <c r="D145">
-        <v>40970.79852586064</v>
+        <v>40970.79852586066</v>
       </c>
       <c r="E145">
         <v>46000.3444408939</v>
@@ -2836,13 +2836,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>43039.60100947233</v>
+        <v>43039.60100947232</v>
       </c>
       <c r="C146">
         <v>42357.71413268722</v>
       </c>
       <c r="D146">
-        <v>40970.79852586064</v>
+        <v>40970.79852586066</v>
       </c>
       <c r="E146">
         <v>46000.3444408939</v>
@@ -2853,16 +2853,16 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>41952.91382473732</v>
+        <v>41952.91382473734</v>
       </c>
       <c r="C147">
-        <v>41476.89579249007</v>
+        <v>41476.89579249008</v>
       </c>
       <c r="D147">
-        <v>40457.10248184949</v>
+        <v>40457.10248184948</v>
       </c>
       <c r="E147">
-        <v>45878.39943121131</v>
+        <v>45878.39943121133</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2870,16 +2870,16 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>41952.91382473732</v>
+        <v>41952.91382473734</v>
       </c>
       <c r="C148">
-        <v>41476.89579249007</v>
+        <v>41476.89579249008</v>
       </c>
       <c r="D148">
-        <v>40457.10248184949</v>
+        <v>40457.10248184948</v>
       </c>
       <c r="E148">
-        <v>45878.39943121131</v>
+        <v>45878.39943121133</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2890,13 +2890,13 @@
         <v>40392.7516778737</v>
       </c>
       <c r="C149">
-        <v>39856.96974128956</v>
+        <v>39856.96974128955</v>
       </c>
       <c r="D149">
-        <v>38618.59028314606</v>
+        <v>38618.59028314607</v>
       </c>
       <c r="E149">
-        <v>43407.03840685781</v>
+        <v>43407.03840685783</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2907,13 +2907,13 @@
         <v>40392.7516778737</v>
       </c>
       <c r="C150">
-        <v>39856.96974128956</v>
+        <v>39856.96974128955</v>
       </c>
       <c r="D150">
-        <v>38618.59028314606</v>
+        <v>38618.59028314607</v>
       </c>
       <c r="E150">
-        <v>43407.03840685781</v>
+        <v>43407.03840685783</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2924,13 +2924,13 @@
         <v>40392.7516778737</v>
       </c>
       <c r="C151">
-        <v>39856.96974128956</v>
+        <v>39856.96974128955</v>
       </c>
       <c r="D151">
-        <v>38618.59028314606</v>
+        <v>38618.59028314607</v>
       </c>
       <c r="E151">
-        <v>43407.03840685781</v>
+        <v>43407.03840685783</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2941,13 +2941,13 @@
         <v>40392.7516778737</v>
       </c>
       <c r="C152">
-        <v>39856.96974128956</v>
+        <v>39856.96974128955</v>
       </c>
       <c r="D152">
-        <v>38618.59028314606</v>
+        <v>38618.59028314607</v>
       </c>
       <c r="E152">
-        <v>43407.03840685781</v>
+        <v>43407.03840685783</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2961,10 +2961,10 @@
         <v>36796.24755008946</v>
       </c>
       <c r="D153">
-        <v>35801.96523141938</v>
+        <v>35801.96523141934</v>
       </c>
       <c r="E153">
-        <v>40499.88661707387</v>
+        <v>40499.88661707389</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2978,10 +2978,10 @@
         <v>36796.24755008946</v>
       </c>
       <c r="D154">
-        <v>35801.96523141938</v>
+        <v>35801.96523141934</v>
       </c>
       <c r="E154">
-        <v>40499.88661707387</v>
+        <v>40499.88661707389</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -2995,10 +2995,10 @@
         <v>36184.61818174223</v>
       </c>
       <c r="D155">
-        <v>35079.62259655597</v>
+        <v>35079.62259655596</v>
       </c>
       <c r="E155">
-        <v>39404.42885402191</v>
+        <v>39404.42885402192</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3012,10 +3012,10 @@
         <v>36184.61818174223</v>
       </c>
       <c r="D156">
-        <v>35079.62259655597</v>
+        <v>35079.62259655596</v>
       </c>
       <c r="E156">
-        <v>39404.42885402191</v>
+        <v>39404.42885402192</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3029,10 +3029,10 @@
         <v>36184.61818174223</v>
       </c>
       <c r="D157">
-        <v>35079.62259655597</v>
+        <v>35079.62259655596</v>
       </c>
       <c r="E157">
-        <v>39404.42885402191</v>
+        <v>39404.42885402192</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3043,13 +3043,13 @@
         <v>37593.33715689752</v>
       </c>
       <c r="C158">
-        <v>37111.06143240253</v>
+        <v>37111.06143240252</v>
       </c>
       <c r="D158">
         <v>35876.44254656055</v>
       </c>
       <c r="E158">
-        <v>40147.25462993947</v>
+        <v>40147.25462993946</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3060,13 +3060,13 @@
         <v>37593.33715689752</v>
       </c>
       <c r="C159">
-        <v>37111.06143240253</v>
+        <v>37111.06143240252</v>
       </c>
       <c r="D159">
         <v>35876.44254656055</v>
       </c>
       <c r="E159">
-        <v>40147.25462993947</v>
+        <v>40147.25462993946</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3077,10 +3077,10 @@
         <v>35522.16941573469</v>
       </c>
       <c r="C160">
-        <v>35096.56081989023</v>
+        <v>35096.5608198902</v>
       </c>
       <c r="D160">
-        <v>33856.12024866291</v>
+        <v>33856.12024866292</v>
       </c>
       <c r="E160">
         <v>37749.70581171493</v>
@@ -3091,16 +3091,16 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>34546.19989906745</v>
+        <v>34546.19989906744</v>
       </c>
       <c r="C161">
         <v>34118.93000551251</v>
       </c>
       <c r="D161">
-        <v>32759.20229697972</v>
+        <v>32759.20229697973</v>
       </c>
       <c r="E161">
-        <v>36169.44141072181</v>
+        <v>36169.44141072183</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3111,10 +3111,10 @@
         <v>35522.16941573469</v>
       </c>
       <c r="C162">
-        <v>35096.56081989023</v>
+        <v>35096.5608198902</v>
       </c>
       <c r="D162">
-        <v>33856.12024866291</v>
+        <v>33856.12024866292</v>
       </c>
       <c r="E162">
         <v>37749.70581171493</v>
@@ -3128,13 +3128,13 @@
         <v>40709.91903885182</v>
       </c>
       <c r="C163">
-        <v>40111.77638358592</v>
+        <v>40111.77638358591</v>
       </c>
       <c r="D163">
-        <v>38663.98531124669</v>
+        <v>38663.98531124668</v>
       </c>
       <c r="E163">
-        <v>43117.35556638909</v>
+        <v>43117.35556638908</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3145,13 +3145,13 @@
         <v>40709.91903885182</v>
       </c>
       <c r="C164">
-        <v>40111.77638358592</v>
+        <v>40111.77638358591</v>
       </c>
       <c r="D164">
-        <v>38663.98531124669</v>
+        <v>38663.98531124668</v>
       </c>
       <c r="E164">
-        <v>43117.35556638909</v>
+        <v>43117.35556638908</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,16 +3159,16 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>37476.24286454908</v>
+        <v>37476.24286454909</v>
       </c>
       <c r="C165">
-        <v>36930.96969955705</v>
+        <v>36930.96969955706</v>
       </c>
       <c r="D165">
         <v>35448.47142668186</v>
       </c>
       <c r="E165">
-        <v>39145.68860266172</v>
+        <v>39145.68860266171</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,16 +3176,16 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>37476.24286454908</v>
+        <v>37476.24286454909</v>
       </c>
       <c r="C166">
-        <v>36930.96969955705</v>
+        <v>36930.96969955706</v>
       </c>
       <c r="D166">
         <v>35448.47142668186</v>
       </c>
       <c r="E166">
-        <v>39145.68860266172</v>
+        <v>39145.68860266171</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3193,13 +3193,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>35878.8449754762</v>
+        <v>35878.84497547621</v>
       </c>
       <c r="C167">
         <v>35391.9287563965</v>
       </c>
       <c r="D167">
-        <v>33915.65788259212</v>
+        <v>33915.65788259213</v>
       </c>
       <c r="E167">
         <v>37245.70809930182</v>
@@ -3210,13 +3210,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>35878.8449754762</v>
+        <v>35878.84497547621</v>
       </c>
       <c r="C168">
         <v>35391.9287563965</v>
       </c>
       <c r="D168">
-        <v>33915.65788259212</v>
+        <v>33915.65788259213</v>
       </c>
       <c r="E168">
         <v>37245.70809930182</v>
@@ -3227,16 +3227,16 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>44646.82795513966</v>
+        <v>44646.82795513967</v>
       </c>
       <c r="C169">
-        <v>43884.01154696989</v>
+        <v>43884.01154696986</v>
       </c>
       <c r="D169">
-        <v>42956.34142266234</v>
+        <v>42956.3414226623</v>
       </c>
       <c r="E169">
-        <v>49255.16725766533</v>
+        <v>49255.16725766531</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3244,16 +3244,16 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>44303.12503027902</v>
+        <v>44303.12503027901</v>
       </c>
       <c r="C170">
-        <v>43627.78109329839</v>
+        <v>43627.78109329837</v>
       </c>
       <c r="D170">
-        <v>42772.39863943055</v>
+        <v>42772.39863943054</v>
       </c>
       <c r="E170">
-        <v>49094.46970640246</v>
+        <v>49094.46970640244</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3261,16 +3261,16 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>44646.82795513966</v>
+        <v>44646.82795513967</v>
       </c>
       <c r="C171">
-        <v>43884.01154696989</v>
+        <v>43884.01154696986</v>
       </c>
       <c r="D171">
-        <v>42956.34142266234</v>
+        <v>42956.3414226623</v>
       </c>
       <c r="E171">
-        <v>49255.16725766533</v>
+        <v>49255.16725766531</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3278,16 +3278,16 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>44303.12503027902</v>
+        <v>44303.12503027901</v>
       </c>
       <c r="C172">
-        <v>43627.78109329839</v>
+        <v>43627.78109329837</v>
       </c>
       <c r="D172">
-        <v>42772.39863943055</v>
+        <v>42772.39863943054</v>
       </c>
       <c r="E172">
-        <v>49094.46970640246</v>
+        <v>49094.46970640244</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3295,16 +3295,16 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>44303.12503027902</v>
+        <v>44303.12503027901</v>
       </c>
       <c r="C173">
-        <v>43627.78109329839</v>
+        <v>43627.78109329837</v>
       </c>
       <c r="D173">
-        <v>42772.39863943055</v>
+        <v>42772.39863943054</v>
       </c>
       <c r="E173">
-        <v>49094.46970640246</v>
+        <v>49094.46970640244</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3315,7 +3315,7 @@
         <v>44472.71233442758</v>
       </c>
       <c r="C174">
-        <v>43840.28430788866</v>
+        <v>43840.28430788865</v>
       </c>
       <c r="D174">
         <v>42999.39926018765</v>
@@ -3338,7 +3338,7 @@
         <v>42021.8635199799</v>
       </c>
       <c r="E175">
-        <v>48341.76161603563</v>
+        <v>48341.76161603564</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3355,7 +3355,7 @@
         <v>42021.8635199799</v>
       </c>
       <c r="E176">
-        <v>48341.76161603563</v>
+        <v>48341.76161603564</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3372,7 +3372,7 @@
         <v>42021.8635199799</v>
       </c>
       <c r="E177">
-        <v>48341.76161603563</v>
+        <v>48341.76161603564</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3380,10 +3380,10 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>44066.22096318004</v>
+        <v>44066.22096318003</v>
       </c>
       <c r="C178">
-        <v>43466.5809193254</v>
+        <v>43466.58091932537</v>
       </c>
       <c r="D178">
         <v>42649.26548157579</v>
@@ -3397,16 +3397,16 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>43373.27504528531</v>
+        <v>43373.27504528533</v>
       </c>
       <c r="C179">
-        <v>42811.04887102058</v>
+        <v>42811.0488710206</v>
       </c>
       <c r="D179">
-        <v>41957.26317696772</v>
+        <v>41957.2631769677</v>
       </c>
       <c r="E179">
-        <v>48041.33941286467</v>
+        <v>48041.33941286468</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3414,16 +3414,16 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>43373.27504528531</v>
+        <v>43373.27504528533</v>
       </c>
       <c r="C180">
-        <v>42811.04887102058</v>
+        <v>42811.0488710206</v>
       </c>
       <c r="D180">
-        <v>41957.26317696772</v>
+        <v>41957.2631769677</v>
       </c>
       <c r="E180">
-        <v>48041.33941286467</v>
+        <v>48041.33941286468</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3431,16 +3431,16 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>43373.27504528531</v>
+        <v>43373.27504528533</v>
       </c>
       <c r="C181">
-        <v>42811.04887102058</v>
+        <v>42811.0488710206</v>
       </c>
       <c r="D181">
-        <v>41957.26317696772</v>
+        <v>41957.2631769677</v>
       </c>
       <c r="E181">
-        <v>48041.33941286467</v>
+        <v>48041.33941286468</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3454,7 +3454,7 @@
         <v>36555.27692335715</v>
       </c>
       <c r="D182">
-        <v>35700.56674265875</v>
+        <v>35700.56674265873</v>
       </c>
       <c r="E182">
         <v>40664.12488033654</v>
@@ -3468,13 +3468,13 @@
         <v>37338.17004892394</v>
       </c>
       <c r="C183">
-        <v>36967.39679648264</v>
+        <v>36967.39679648265</v>
       </c>
       <c r="D183">
-        <v>36211.65943725312</v>
+        <v>36211.65943725311</v>
       </c>
       <c r="E183">
-        <v>41356.0493096301</v>
+        <v>41356.04930963011</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3485,10 +3485,10 @@
         <v>40317.06010826385</v>
       </c>
       <c r="C184">
-        <v>39677.40843416414</v>
+        <v>39677.40843416413</v>
       </c>
       <c r="D184">
-        <v>38917.20465697122</v>
+        <v>38917.20465697123</v>
       </c>
       <c r="E184">
         <v>44859.07464889515</v>
@@ -3502,10 +3502,10 @@
         <v>40317.06010826385</v>
       </c>
       <c r="C185">
-        <v>39677.40843416414</v>
+        <v>39677.40843416413</v>
       </c>
       <c r="D185">
-        <v>38917.20465697122</v>
+        <v>38917.20465697123</v>
       </c>
       <c r="E185">
         <v>44859.07464889515</v>
@@ -3516,16 +3516,16 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>37054.98734692363</v>
+        <v>37054.98734692362</v>
       </c>
       <c r="C186">
         <v>36410.00101453678</v>
       </c>
       <c r="D186">
-        <v>35696.78668397433</v>
+        <v>35696.78668397434</v>
       </c>
       <c r="E186">
-        <v>41265.45726593792</v>
+        <v>41265.45726593789</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3533,16 +3533,16 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>37054.98734692363</v>
+        <v>37054.98734692362</v>
       </c>
       <c r="C187">
         <v>36410.00101453678</v>
       </c>
       <c r="D187">
-        <v>35696.78668397433</v>
+        <v>35696.78668397434</v>
       </c>
       <c r="E187">
-        <v>41265.45726593792</v>
+        <v>41265.45726593789</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3553,10 +3553,10 @@
         <v>36011.07866197886</v>
       </c>
       <c r="C188">
-        <v>35557.79244028503</v>
+        <v>35557.79244028504</v>
       </c>
       <c r="D188">
-        <v>34852.03328634139</v>
+        <v>34852.03328634138</v>
       </c>
       <c r="E188">
         <v>40011.62416114681</v>
@@ -3570,10 +3570,10 @@
         <v>36011.07866197886</v>
       </c>
       <c r="C189">
-        <v>35557.79244028503</v>
+        <v>35557.79244028504</v>
       </c>
       <c r="D189">
-        <v>34852.03328634139</v>
+        <v>34852.03328634138</v>
       </c>
       <c r="E189">
         <v>40011.62416114681</v>
@@ -3587,10 +3587,10 @@
         <v>36011.07866197886</v>
       </c>
       <c r="C190">
-        <v>35557.79244028503</v>
+        <v>35557.79244028504</v>
       </c>
       <c r="D190">
-        <v>34852.03328634139</v>
+        <v>34852.03328634138</v>
       </c>
       <c r="E190">
         <v>40011.62416114681</v>
@@ -3601,16 +3601,16 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>39796.16582416091</v>
+        <v>39796.16582416092</v>
       </c>
       <c r="C191">
         <v>39168.7031042269</v>
       </c>
       <c r="D191">
-        <v>38399.27571890802</v>
+        <v>38399.27571890803</v>
       </c>
       <c r="E191">
-        <v>44218.72580865958</v>
+        <v>44218.72580865959</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3618,16 +3618,16 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>37054.98734692363</v>
+        <v>37054.98734692362</v>
       </c>
       <c r="C192">
         <v>36410.00101453678</v>
       </c>
       <c r="D192">
-        <v>35696.78668397433</v>
+        <v>35696.78668397434</v>
       </c>
       <c r="E192">
-        <v>41265.45726593792</v>
+        <v>41265.45726593789</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3638,13 +3638,13 @@
         <v>43794.81485952177</v>
       </c>
       <c r="C193">
-        <v>42968.12383849378</v>
+        <v>42968.1238384938</v>
       </c>
       <c r="D193">
         <v>41847.17758613949</v>
       </c>
       <c r="E193">
-        <v>47574.67620726</v>
+        <v>47574.67620725999</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3655,13 +3655,13 @@
         <v>43794.81485952177</v>
       </c>
       <c r="C194">
-        <v>42968.12383849378</v>
+        <v>42968.1238384938</v>
       </c>
       <c r="D194">
         <v>41847.17758613949</v>
       </c>
       <c r="E194">
-        <v>47574.67620726</v>
+        <v>47574.67620725999</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3669,16 +3669,16 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>44646.82795513966</v>
+        <v>44646.82795513967</v>
       </c>
       <c r="C195">
-        <v>43884.01154696989</v>
+        <v>43884.01154696986</v>
       </c>
       <c r="D195">
-        <v>42956.34142266234</v>
+        <v>42956.3414226623</v>
       </c>
       <c r="E195">
-        <v>49255.16725766533</v>
+        <v>49255.16725766531</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3686,16 +3686,16 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>41998.3220588175</v>
+        <v>41998.32205881749</v>
       </c>
       <c r="C196">
-        <v>41200.80890094726</v>
+        <v>41200.80890094727</v>
       </c>
       <c r="D196">
         <v>40393.26673094135</v>
       </c>
       <c r="E196">
-        <v>46583.43277467689</v>
+        <v>46583.43277467688</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3709,10 +3709,10 @@
         <v>41174.78309567445</v>
       </c>
       <c r="D197">
-        <v>40241.74903373947</v>
+        <v>40241.74903373948</v>
       </c>
       <c r="E197">
-        <v>46147.5081569917</v>
+        <v>46147.50815699169</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3726,10 +3726,10 @@
         <v>41174.78309567445</v>
       </c>
       <c r="D198">
-        <v>40241.74903373947</v>
+        <v>40241.74903373948</v>
       </c>
       <c r="E198">
-        <v>46147.5081569917</v>
+        <v>46147.50815699169</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3743,10 +3743,10 @@
         <v>41174.78309567445</v>
       </c>
       <c r="D199">
-        <v>40241.74903373947</v>
+        <v>40241.74903373948</v>
       </c>
       <c r="E199">
-        <v>46147.5081569917</v>
+        <v>46147.50815699169</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3760,10 +3760,10 @@
         <v>41174.78309567445</v>
       </c>
       <c r="D200">
-        <v>40241.74903373947</v>
+        <v>40241.74903373948</v>
       </c>
       <c r="E200">
-        <v>46147.5081569917</v>
+        <v>46147.50815699169</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3774,13 +3774,13 @@
         <v>41292.16305999915</v>
       </c>
       <c r="C201">
-        <v>40395.79231613987</v>
+        <v>40395.79231613986</v>
       </c>
       <c r="D201">
-        <v>39278.51218565287</v>
+        <v>39278.51218565288</v>
       </c>
       <c r="E201">
-        <v>44607.69329735708</v>
+        <v>44607.69329735706</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3788,13 +3788,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>39223.34793042384</v>
+        <v>39223.34793042383</v>
       </c>
       <c r="C202">
         <v>38360.95872040204</v>
       </c>
       <c r="D202">
-        <v>37546.62684773042</v>
+        <v>37546.62684773041</v>
       </c>
       <c r="E202">
         <v>43191.85064350598</v>
@@ -3805,16 +3805,16 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>41998.3220588175</v>
+        <v>41998.32205881749</v>
       </c>
       <c r="C203">
-        <v>41200.80890094726</v>
+        <v>41200.80890094727</v>
       </c>
       <c r="D203">
         <v>40393.26673094135</v>
       </c>
       <c r="E203">
-        <v>46583.43277467689</v>
+        <v>46583.43277467688</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3822,16 +3822,16 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>39788.26222830537</v>
+        <v>39788.26222830536</v>
       </c>
       <c r="C204">
-        <v>38942.33803138483</v>
+        <v>38942.33803138484</v>
       </c>
       <c r="D204">
-        <v>38190.7840160433</v>
+        <v>38190.78401604328</v>
       </c>
       <c r="E204">
-        <v>44185.82554865286</v>
+        <v>44185.82554865284</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3839,16 +3839,16 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>39788.26222830537</v>
+        <v>39788.26222830536</v>
       </c>
       <c r="C205">
-        <v>38942.33803138483</v>
+        <v>38942.33803138484</v>
       </c>
       <c r="D205">
-        <v>38190.7840160433</v>
+        <v>38190.78401604328</v>
       </c>
       <c r="E205">
-        <v>44185.82554865286</v>
+        <v>44185.82554865284</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3856,7 +3856,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>23929.00451229016</v>
+        <v>23929.00451229015</v>
       </c>
       <c r="C206">
         <v>24788.76753770026</v>
@@ -3865,7 +3865,7 @@
         <v>21804.35390255485</v>
       </c>
       <c r="E206">
-        <v>19328.65914764189</v>
+        <v>19328.6591476419</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3876,7 +3876,7 @@
         <v>23232.8821930202</v>
       </c>
       <c r="C207">
-        <v>24207.70110690035</v>
+        <v>24207.70110690034</v>
       </c>
       <c r="D207">
         <v>21249.0013996652</v>
@@ -3893,7 +3893,7 @@
         <v>23232.8821930202</v>
       </c>
       <c r="C208">
-        <v>24207.70110690035</v>
+        <v>24207.70110690034</v>
       </c>
       <c r="D208">
         <v>21249.0013996652</v>
@@ -3907,7 +3907,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>23929.00451229016</v>
+        <v>23929.00451229015</v>
       </c>
       <c r="C209">
         <v>24788.76753770026</v>
@@ -3916,7 +3916,7 @@
         <v>21804.35390255485</v>
       </c>
       <c r="E209">
-        <v>19328.65914764189</v>
+        <v>19328.6591476419</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3927,7 +3927,7 @@
         <v>23232.8821930202</v>
       </c>
       <c r="C210">
-        <v>24207.70110690035</v>
+        <v>24207.70110690034</v>
       </c>
       <c r="D210">
         <v>21249.0013996652</v>
@@ -3961,7 +3961,7 @@
         <v>25693.67698234752</v>
       </c>
       <c r="C212">
-        <v>26428.71794362406</v>
+        <v>26428.71794362407</v>
       </c>
       <c r="D212">
         <v>23340.22652440691</v>
@@ -3978,7 +3978,7 @@
         <v>23232.8821930202</v>
       </c>
       <c r="C213">
-        <v>24207.70110690035</v>
+        <v>24207.70110690034</v>
       </c>
       <c r="D213">
         <v>21249.0013996652</v>
@@ -3995,13 +3995,13 @@
         <v>22709.1085228359</v>
       </c>
       <c r="C214">
-        <v>23751.94276097792</v>
+        <v>23751.94276097794</v>
       </c>
       <c r="D214">
-        <v>20752.75956669647</v>
+        <v>20752.75956669648</v>
       </c>
       <c r="E214">
-        <v>17774.10726462705</v>
+        <v>17774.10726462706</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4012,13 +4012,13 @@
         <v>22709.1085228359</v>
       </c>
       <c r="C215">
-        <v>23751.94276097792</v>
+        <v>23751.94276097794</v>
       </c>
       <c r="D215">
-        <v>20752.75956669647</v>
+        <v>20752.75956669648</v>
       </c>
       <c r="E215">
-        <v>17774.10726462705</v>
+        <v>17774.10726462706</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4026,10 +4026,10 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>22474.44055143348</v>
+        <v>22474.44055143349</v>
       </c>
       <c r="C216">
-        <v>23570.0811371249</v>
+        <v>23570.08113712489</v>
       </c>
       <c r="D216">
         <v>20650.96447884952</v>
@@ -4052,7 +4052,7 @@
         <v>20710.71207120829</v>
       </c>
       <c r="E217">
-        <v>17994.09509812655</v>
+        <v>17994.09509812656</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4069,7 +4069,7 @@
         <v>20710.71207120829</v>
       </c>
       <c r="E218">
-        <v>17994.09509812655</v>
+        <v>17994.09509812656</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4077,16 +4077,16 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>25850.70053769046</v>
+        <v>25850.70053769045</v>
       </c>
       <c r="C219">
         <v>26281.44163844984</v>
       </c>
       <c r="D219">
-        <v>23197.81457147319</v>
+        <v>23197.81457147321</v>
       </c>
       <c r="E219">
-        <v>21420.1999528766</v>
+        <v>21420.19995287659</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4114,7 +4114,7 @@
         <v>27044.60292457107</v>
       </c>
       <c r="C221">
-        <v>27302.37161947971</v>
+        <v>27302.37161947972</v>
       </c>
       <c r="D221">
         <v>24192.54737440149</v>
@@ -4128,16 +4128,16 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>25850.70053769046</v>
+        <v>25850.70053769045</v>
       </c>
       <c r="C222">
         <v>26281.44163844984</v>
       </c>
       <c r="D222">
-        <v>23197.81457147319</v>
+        <v>23197.81457147321</v>
       </c>
       <c r="E222">
-        <v>21420.1999528766</v>
+        <v>21420.19995287659</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4148,7 +4148,7 @@
         <v>27044.60292457107</v>
       </c>
       <c r="C223">
-        <v>27302.37161947971</v>
+        <v>27302.37161947972</v>
       </c>
       <c r="D223">
         <v>24192.54737440149</v>
@@ -4168,10 +4168,10 @@
         <v>22753.01016796195</v>
       </c>
       <c r="D224">
-        <v>19746.17650312699</v>
+        <v>19746.176503127</v>
       </c>
       <c r="E224">
-        <v>16494.07239625774</v>
+        <v>16494.07239625775</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4185,10 +4185,10 @@
         <v>22753.01016796195</v>
       </c>
       <c r="D225">
-        <v>19746.17650312699</v>
+        <v>19746.176503127</v>
       </c>
       <c r="E225">
-        <v>16494.07239625774</v>
+        <v>16494.07239625775</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4202,10 +4202,10 @@
         <v>22753.01016796195</v>
       </c>
       <c r="D226">
-        <v>19746.17650312699</v>
+        <v>19746.176503127</v>
       </c>
       <c r="E226">
-        <v>16494.07239625774</v>
+        <v>16494.07239625775</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4230,7 +4230,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>19998.07666869516</v>
+        <v>19998.07666869517</v>
       </c>
       <c r="C228">
         <v>21002.66254399113</v>
@@ -4267,7 +4267,7 @@
         <v>27044.60292457107</v>
       </c>
       <c r="C230">
-        <v>27302.37161947971</v>
+        <v>27302.37161947972</v>
       </c>
       <c r="D230">
         <v>24192.54737440149</v>
@@ -4284,7 +4284,7 @@
         <v>25693.67698234752</v>
       </c>
       <c r="C231">
-        <v>26428.71794362406</v>
+        <v>26428.71794362407</v>
       </c>
       <c r="D231">
         <v>23340.22652440691</v>
@@ -4301,10 +4301,10 @@
         <v>24800.71372530943</v>
       </c>
       <c r="C232">
-        <v>25586.36770874047</v>
+        <v>25586.36770874048</v>
       </c>
       <c r="D232">
-        <v>22608.98214631712</v>
+        <v>22608.98214631711</v>
       </c>
       <c r="E232">
         <v>20375.92666093548</v>
@@ -4318,10 +4318,10 @@
         <v>24800.71372530943</v>
       </c>
       <c r="C233">
-        <v>25586.36770874047</v>
+        <v>25586.36770874048</v>
       </c>
       <c r="D233">
-        <v>22608.98214631712</v>
+        <v>22608.98214631711</v>
       </c>
       <c r="E233">
         <v>20375.92666093548</v>
@@ -4335,13 +4335,13 @@
         <v>27752.27964256593</v>
       </c>
       <c r="C234">
-        <v>28217.78501554851</v>
+        <v>28217.7850155485</v>
       </c>
       <c r="D234">
         <v>25043.19055362645</v>
       </c>
       <c r="E234">
-        <v>23306.73632153244</v>
+        <v>23306.73632153245</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4352,13 +4352,13 @@
         <v>27752.27964256593</v>
       </c>
       <c r="C235">
-        <v>28217.78501554851</v>
+        <v>28217.7850155485</v>
       </c>
       <c r="D235">
         <v>25043.19055362645</v>
       </c>
       <c r="E235">
-        <v>23306.73632153244</v>
+        <v>23306.73632153245</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4369,13 +4369,13 @@
         <v>27752.27964256593</v>
       </c>
       <c r="C236">
-        <v>28217.78501554851</v>
+        <v>28217.7850155485</v>
       </c>
       <c r="D236">
         <v>25043.19055362645</v>
       </c>
       <c r="E236">
-        <v>23306.73632153244</v>
+        <v>23306.73632153245</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4451,7 +4451,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>21416.40160187435</v>
+        <v>21416.40160187434</v>
       </c>
       <c r="C241">
         <v>22624.00839625038</v>
@@ -4471,7 +4471,7 @@
         <v>27044.60292457107</v>
       </c>
       <c r="C242">
-        <v>27302.37161947971</v>
+        <v>27302.37161947972</v>
       </c>
       <c r="D242">
         <v>24192.54737440149</v>
@@ -4485,7 +4485,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>29005.81317214615</v>
+        <v>29005.81317214614</v>
       </c>
       <c r="C243">
         <v>28988.18903877681</v>
@@ -4505,7 +4505,7 @@
         <v>27044.60292457107</v>
       </c>
       <c r="C244">
-        <v>27302.37161947971</v>
+        <v>27302.37161947972</v>
       </c>
       <c r="D244">
         <v>24192.54737440149</v>
@@ -4519,7 +4519,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>29005.81317214615</v>
+        <v>29005.81317214614</v>
       </c>
       <c r="C245">
         <v>28988.18903877681</v>
@@ -4545,7 +4545,7 @@
         <v>25032.48754415311</v>
       </c>
       <c r="E246">
-        <v>23794.28398960267</v>
+        <v>23794.28398960266</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4562,7 +4562,7 @@
         <v>25032.48754415311</v>
       </c>
       <c r="E247">
-        <v>23794.28398960267</v>
+        <v>23794.28398960266</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4587,7 +4587,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>19998.07666869516</v>
+        <v>19998.07666869517</v>
       </c>
       <c r="C249">
         <v>21002.66254399113</v>
@@ -4604,16 +4604,16 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>38690.99818282526</v>
+        <v>38690.99818282527</v>
       </c>
       <c r="C250">
-        <v>38269.4234432635</v>
+        <v>38269.42344326351</v>
       </c>
       <c r="D250">
         <v>35775.98571131979</v>
       </c>
       <c r="E250">
-        <v>37755.39401294309</v>
+        <v>37755.39401294311</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4630,7 +4630,7 @@
         <v>36529.90792150933</v>
       </c>
       <c r="E251">
-        <v>38961.78063759507</v>
+        <v>38961.7806375951</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4638,16 +4638,16 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>36333.53572635948</v>
+        <v>36333.53572635947</v>
       </c>
       <c r="C252">
-        <v>36058.49553796505</v>
+        <v>36058.49553796506</v>
       </c>
       <c r="D252">
         <v>33214.03733743294</v>
       </c>
       <c r="E252">
-        <v>34073.50570197192</v>
+        <v>34073.5057019719</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4655,16 +4655,16 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>36972.87530280754</v>
+        <v>36972.87530280752</v>
       </c>
       <c r="C253">
-        <v>36375.12124090668</v>
+        <v>36375.12124090669</v>
       </c>
       <c r="D253">
-        <v>33982.20947636789</v>
+        <v>33982.20947636788</v>
       </c>
       <c r="E253">
-        <v>36072.24656043854</v>
+        <v>36072.24656043855</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4672,16 +4672,16 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>40231.1130301951</v>
+        <v>40231.11303019508</v>
       </c>
       <c r="C254">
-        <v>39608.44178774636</v>
+        <v>39608.44178774633</v>
       </c>
       <c r="D254">
-        <v>37622.23433342404</v>
+        <v>37622.23433342405</v>
       </c>
       <c r="E254">
-        <v>40938.06904900794</v>
+        <v>40938.06904900795</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4689,16 +4689,16 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>36972.87530280754</v>
+        <v>36972.87530280752</v>
       </c>
       <c r="C255">
-        <v>36375.12124090668</v>
+        <v>36375.12124090669</v>
       </c>
       <c r="D255">
-        <v>33982.20947636789</v>
+        <v>33982.20947636788</v>
       </c>
       <c r="E255">
-        <v>36072.24656043854</v>
+        <v>36072.24656043855</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4712,10 +4712,10 @@
         <v>33613.28358791972</v>
       </c>
       <c r="D256">
-        <v>30712.22071474327</v>
+        <v>30712.22071474328</v>
       </c>
       <c r="E256">
-        <v>30975.74228470632</v>
+        <v>30975.74228470634</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4723,16 +4723,16 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>30185.76419208687</v>
+        <v>30185.76419208688</v>
       </c>
       <c r="C257">
-        <v>29877.33461106148</v>
+        <v>29877.33461106147</v>
       </c>
       <c r="D257">
-        <v>27393.86463683987</v>
+        <v>27393.86463683988</v>
       </c>
       <c r="E257">
-        <v>28038.00253661421</v>
+        <v>28038.0025366142</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4740,16 +4740,16 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>34588.29478387247</v>
+        <v>34588.29478387249</v>
       </c>
       <c r="C258">
         <v>34105.81746053551</v>
       </c>
       <c r="D258">
-        <v>32015.03258224157</v>
+        <v>32015.03258224156</v>
       </c>
       <c r="E258">
-        <v>34070.03482237094</v>
+        <v>34070.03482237093</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4757,16 +4757,16 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>34588.29478387247</v>
+        <v>34588.29478387249</v>
       </c>
       <c r="C259">
         <v>34105.81746053551</v>
       </c>
       <c r="D259">
-        <v>32015.03258224157</v>
+        <v>32015.03258224156</v>
       </c>
       <c r="E259">
-        <v>34070.03482237094</v>
+        <v>34070.03482237093</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4774,7 +4774,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>11131.60276101688</v>
+        <v>11131.60276101689</v>
       </c>
       <c r="C260">
         <v>10885.20353951775</v>
@@ -4791,13 +4791,13 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>7392.284401115391</v>
+        <v>7392.284401115389</v>
       </c>
       <c r="C261">
-        <v>7235.222263974969</v>
+        <v>7235.222263974964</v>
       </c>
       <c r="D261">
-        <v>7026.696845017475</v>
+        <v>7026.696845017479</v>
       </c>
       <c r="E261">
         <v>7919.916527202163</v>
@@ -4808,7 +4808,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>11077.47682466227</v>
+        <v>11077.47682466228</v>
       </c>
       <c r="C262">
         <v>10850.47948885797</v>
@@ -4825,7 +4825,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>11077.47682466227</v>
+        <v>11077.47682466228</v>
       </c>
       <c r="C263">
         <v>10850.47948885797</v>
@@ -4842,13 +4842,13 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>10078.92880970906</v>
+        <v>10078.92880970907</v>
       </c>
       <c r="C264">
-        <v>9891.108184296121</v>
+        <v>9891.108184296123</v>
       </c>
       <c r="D264">
-        <v>9607.297060214245</v>
+        <v>9607.297060214241</v>
       </c>
       <c r="E264">
         <v>10905.55683083225</v>
@@ -4859,13 +4859,13 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>10078.92880970906</v>
+        <v>10078.92880970907</v>
       </c>
       <c r="C265">
-        <v>9891.108184296121</v>
+        <v>9891.108184296123</v>
       </c>
       <c r="D265">
-        <v>9607.297060214245</v>
+        <v>9607.297060214241</v>
       </c>
       <c r="E265">
         <v>10905.55683083225</v>
@@ -4876,7 +4876,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>13062.21209062343</v>
+        <v>13062.21209062342</v>
       </c>
       <c r="C266">
         <v>12753.97154009393</v>
@@ -4893,13 +4893,13 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>10078.92880970906</v>
+        <v>10078.92880970907</v>
       </c>
       <c r="C267">
-        <v>9891.108184296121</v>
+        <v>9891.108184296123</v>
       </c>
       <c r="D267">
-        <v>9607.297060214245</v>
+        <v>9607.297060214241</v>
       </c>
       <c r="E267">
         <v>10905.55683083225</v>
@@ -4910,13 +4910,13 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>7392.284401115391</v>
+        <v>7392.284401115389</v>
       </c>
       <c r="C268">
-        <v>7235.222263974969</v>
+        <v>7235.222263974964</v>
       </c>
       <c r="D268">
-        <v>7026.696845017475</v>
+        <v>7026.696845017479</v>
       </c>
       <c r="E268">
         <v>7919.916527202163</v>
@@ -4927,13 +4927,13 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>7392.284401115391</v>
+        <v>7392.284401115389</v>
       </c>
       <c r="C269">
-        <v>7235.222263974969</v>
+        <v>7235.222263974964</v>
       </c>
       <c r="D269">
-        <v>7026.696845017475</v>
+        <v>7026.696845017479</v>
       </c>
       <c r="E269">
         <v>7919.916527202163</v>
@@ -4944,16 +4944,16 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>6064.726318761395</v>
+        <v>6064.726318761396</v>
       </c>
       <c r="C270">
-        <v>5858.140892217777</v>
+        <v>5858.140892217774</v>
       </c>
       <c r="D270">
         <v>5610.315919949579</v>
       </c>
       <c r="E270">
-        <v>6132.306931503573</v>
+        <v>6132.306931503575</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4967,7 +4967,7 @@
         <v>4604.334348384172</v>
       </c>
       <c r="D271">
-        <v>4340.159099348396</v>
+        <v>4340.159099348397</v>
       </c>
       <c r="E271">
         <v>4360.043805760628</v>
@@ -4984,7 +4984,7 @@
         <v>4604.334348384172</v>
       </c>
       <c r="D272">
-        <v>4340.159099348396</v>
+        <v>4340.159099348397</v>
       </c>
       <c r="E272">
         <v>4360.043805760628</v>
@@ -4995,16 +4995,16 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>6933.217994730425</v>
+        <v>6933.217994730423</v>
       </c>
       <c r="C273">
-        <v>6702.310809746685</v>
+        <v>6702.310809746684</v>
       </c>
       <c r="D273">
         <v>6458.923208111718</v>
       </c>
       <c r="E273">
-        <v>7184.093456480861</v>
+        <v>7184.093456480862</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5012,16 +5012,16 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>6933.217994730425</v>
+        <v>6933.217994730423</v>
       </c>
       <c r="C274">
-        <v>6702.310809746685</v>
+        <v>6702.310809746684</v>
       </c>
       <c r="D274">
         <v>6458.923208111718</v>
       </c>
       <c r="E274">
-        <v>7184.093456480861</v>
+        <v>7184.093456480862</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5029,16 +5029,16 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>8880.21126966971</v>
+        <v>8880.211269669711</v>
       </c>
       <c r="C275">
-        <v>8939.820946629785</v>
+        <v>8939.820946629783</v>
       </c>
       <c r="D275">
         <v>7863.140824297662</v>
       </c>
       <c r="E275">
-        <v>6877.340325096008</v>
+        <v>6877.340325096007</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5049,13 +5049,13 @@
         <v>6471.521690668252</v>
       </c>
       <c r="C276">
-        <v>6429.945501131181</v>
+        <v>6429.945501131182</v>
       </c>
       <c r="D276">
         <v>5847.200249722393</v>
       </c>
       <c r="E276">
-        <v>5412.057012592499</v>
+        <v>5412.057012592498</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5063,13 +5063,13 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>11284.68100640644</v>
+        <v>11284.68100640643</v>
       </c>
       <c r="C277">
         <v>11384.31092973478</v>
       </c>
       <c r="D277">
-        <v>9913.314286000552</v>
+        <v>9913.314286000559</v>
       </c>
       <c r="E277">
         <v>8632.657886775412</v>
@@ -5080,10 +5080,10 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>17751.0278230728</v>
+        <v>17751.02782307281</v>
       </c>
       <c r="C278">
-        <v>18157.85887249491</v>
+        <v>18157.85887249492</v>
       </c>
       <c r="D278">
         <v>15744.42621334421</v>
@@ -5100,10 +5100,10 @@
         <v>21303.85077205648</v>
       </c>
       <c r="C279">
-        <v>21838.96640365101</v>
+        <v>21838.96640365102</v>
       </c>
       <c r="D279">
-        <v>18988.25366853855</v>
+        <v>18988.25366853854</v>
       </c>
       <c r="E279">
         <v>16647.12166177349</v>
@@ -5117,10 +5117,10 @@
         <v>21303.85077205648</v>
       </c>
       <c r="C280">
-        <v>21838.96640365101</v>
+        <v>21838.96640365102</v>
       </c>
       <c r="D280">
-        <v>18988.25366853855</v>
+        <v>18988.25366853854</v>
       </c>
       <c r="E280">
         <v>16647.12166177349</v>
@@ -5131,16 +5131,16 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>6292.729905027516</v>
+        <v>6292.729905027515</v>
       </c>
       <c r="C281">
-        <v>6357.171543393346</v>
+        <v>6357.171543393345</v>
       </c>
       <c r="D281">
         <v>5650.488832622155</v>
       </c>
       <c r="E281">
-        <v>4884.279177368507</v>
+        <v>4884.279177368508</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5148,16 +5148,16 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>5329.018715332364</v>
+        <v>5329.018715332363</v>
       </c>
       <c r="C282">
         <v>5346.534434427132</v>
       </c>
       <c r="D282">
-        <v>4843.057322087041</v>
+        <v>4843.057322087039</v>
       </c>
       <c r="E282">
-        <v>4324.246681608413</v>
+        <v>4324.246681608412</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5165,16 +5165,16 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>5329.018715332364</v>
+        <v>5329.018715332363</v>
       </c>
       <c r="C283">
         <v>5346.534434427132</v>
       </c>
       <c r="D283">
-        <v>4843.057322087041</v>
+        <v>4843.057322087039</v>
       </c>
       <c r="E283">
-        <v>4324.246681608413</v>
+        <v>4324.246681608412</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5182,16 +5182,16 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>5329.018715332364</v>
+        <v>5329.018715332363</v>
       </c>
       <c r="C284">
         <v>5346.534434427132</v>
       </c>
       <c r="D284">
-        <v>4843.057322087041</v>
+        <v>4843.057322087039</v>
       </c>
       <c r="E284">
-        <v>4324.246681608413</v>
+        <v>4324.246681608412</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5202,13 +5202,13 @@
         <v>6471.521690668252</v>
       </c>
       <c r="C285">
-        <v>6429.945501131181</v>
+        <v>6429.945501131182</v>
       </c>
       <c r="D285">
         <v>5847.200249722393</v>
       </c>
       <c r="E285">
-        <v>5412.057012592499</v>
+        <v>5412.057012592498</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5219,10 +5219,10 @@
         <v>21303.85077205648</v>
       </c>
       <c r="C286">
-        <v>21838.96640365101</v>
+        <v>21838.96640365102</v>
       </c>
       <c r="D286">
-        <v>18988.25366853855</v>
+        <v>18988.25366853854</v>
       </c>
       <c r="E286">
         <v>16647.12166177349</v>
@@ -5253,13 +5253,13 @@
         <v>20907.96876397216</v>
       </c>
       <c r="C288">
-        <v>20538.8366262287</v>
+        <v>20538.83662622869</v>
       </c>
       <c r="D288">
         <v>19310.28109933448</v>
       </c>
       <c r="E288">
-        <v>20673.49930398697</v>
+        <v>20673.49930398698</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5267,16 +5267,16 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>31009.61062666827</v>
+        <v>31009.61062666826</v>
       </c>
       <c r="C289">
         <v>30661.71019987734</v>
       </c>
       <c r="D289">
-        <v>29286.37701204753</v>
+        <v>29286.37701204754</v>
       </c>
       <c r="E289">
-        <v>31984.83145681111</v>
+        <v>31984.83145681112</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5307,7 +5307,7 @@
         <v>18404.92199043524</v>
       </c>
       <c r="D291">
-        <v>17268.36753253113</v>
+        <v>17268.36753253114</v>
       </c>
       <c r="E291">
         <v>18543.65470083104</v>
@@ -5321,13 +5321,13 @@
         <v>23781.28455001028</v>
       </c>
       <c r="C292">
-        <v>23362.01449446718</v>
+        <v>23362.01449446717</v>
       </c>
       <c r="D292">
         <v>21799.22201578537</v>
       </c>
       <c r="E292">
-        <v>23047.40169987593</v>
+        <v>23047.40169987594</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5344,7 +5344,7 @@
         <v>22061.75070066839</v>
       </c>
       <c r="E293">
-        <v>23436.45715773298</v>
+        <v>23436.45715773299</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5355,13 +5355,13 @@
         <v>23781.28455001028</v>
       </c>
       <c r="C294">
-        <v>23362.01449446718</v>
+        <v>23362.01449446717</v>
       </c>
       <c r="D294">
         <v>21799.22201578537</v>
       </c>
       <c r="E294">
-        <v>23047.40169987593</v>
+        <v>23047.40169987594</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5372,13 +5372,13 @@
         <v>20408.60870749146</v>
       </c>
       <c r="C295">
-        <v>19596.93932035438</v>
+        <v>19596.93932035437</v>
       </c>
       <c r="D295">
         <v>18888.42125684542</v>
       </c>
       <c r="E295">
-        <v>20925.74974205318</v>
+        <v>20925.74974205317</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5386,16 +5386,16 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>21874.90856747414</v>
+        <v>21874.90856747415</v>
       </c>
       <c r="C296">
-        <v>21031.4671475952</v>
+        <v>21031.46714759519</v>
       </c>
       <c r="D296">
         <v>20304.20265704134</v>
       </c>
       <c r="E296">
-        <v>22576.21563741027</v>
+        <v>22576.21563741026</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5406,7 +5406,7 @@
         <v>20525.69296701858</v>
       </c>
       <c r="C297">
-        <v>19675.59828486533</v>
+        <v>19675.59828486532</v>
       </c>
       <c r="D297">
         <v>18949.49527008032</v>
@@ -5426,7 +5426,7 @@
         <v>17263.57930337947</v>
       </c>
       <c r="D298">
-        <v>16539.51559172801</v>
+        <v>16539.515591728</v>
       </c>
       <c r="E298">
         <v>18193.72889835919</v>
@@ -5437,10 +5437,10 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>17711.7382366319</v>
+        <v>17711.73823663189</v>
       </c>
       <c r="C299">
-        <v>16936.41977743897</v>
+        <v>16936.41977743896</v>
       </c>
       <c r="D299">
         <v>16202.37944755002</v>
@@ -5457,13 +5457,13 @@
         <v>20408.60870749146</v>
       </c>
       <c r="C300">
-        <v>19596.93932035438</v>
+        <v>19596.93932035437</v>
       </c>
       <c r="D300">
         <v>18888.42125684542</v>
       </c>
       <c r="E300">
-        <v>20925.74974205318</v>
+        <v>20925.74974205317</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5471,16 +5471,16 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>21874.90856747414</v>
+        <v>21874.90856747415</v>
       </c>
       <c r="C301">
-        <v>21031.4671475952</v>
+        <v>21031.46714759519</v>
       </c>
       <c r="D301">
         <v>20304.20265704134</v>
       </c>
       <c r="E301">
-        <v>22576.21563741027</v>
+        <v>22576.21563741026</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5494,7 +5494,7 @@
         <v>17263.57930337947</v>
       </c>
       <c r="D302">
-        <v>16539.51559172801</v>
+        <v>16539.515591728</v>
       </c>
       <c r="E302">
         <v>18193.72889835919</v>
@@ -5511,7 +5511,7 @@
         <v>17263.57930337947</v>
       </c>
       <c r="D303">
-        <v>16539.51559172801</v>
+        <v>16539.515591728</v>
       </c>
       <c r="E303">
         <v>18193.72889835919</v>
@@ -5562,7 +5562,7 @@
         <v>20748.58726447577</v>
       </c>
       <c r="D306">
-        <v>20197.48188017797</v>
+        <v>20197.48188017798</v>
       </c>
       <c r="E306">
         <v>22637.33075344358</v>
@@ -5596,7 +5596,7 @@
         <v>20748.58726447577</v>
       </c>
       <c r="D308">
-        <v>20197.48188017797</v>
+        <v>20197.48188017798</v>
       </c>
       <c r="E308">
         <v>22637.33075344358</v>
@@ -5613,7 +5613,7 @@
         <v>20748.58726447577</v>
       </c>
       <c r="D309">
-        <v>20197.48188017797</v>
+        <v>20197.48188017798</v>
       </c>
       <c r="E309">
         <v>22637.33075344358</v>
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>7959.990607671137</v>
+        <v>7959.990607671139</v>
       </c>
       <c r="C311">
-        <v>7717.584276597873</v>
+        <v>7717.584276597871</v>
       </c>
       <c r="D311">
-        <v>7162.517183767498</v>
+        <v>7162.517183767499</v>
       </c>
       <c r="E311">
-        <v>7042.620137160937</v>
+        <v>7042.620137160934</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,16 +5658,16 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>7959.990607671137</v>
+        <v>7959.990607671139</v>
       </c>
       <c r="C312">
-        <v>7717.584276597873</v>
+        <v>7717.584276597871</v>
       </c>
       <c r="D312">
-        <v>7162.517183767498</v>
+        <v>7162.517183767499</v>
       </c>
       <c r="E312">
-        <v>7042.620137160937</v>
+        <v>7042.620137160934</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5675,16 +5675,16 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>7959.990607671137</v>
+        <v>7959.990607671139</v>
       </c>
       <c r="C313">
-        <v>7717.584276597873</v>
+        <v>7717.584276597871</v>
       </c>
       <c r="D313">
-        <v>7162.517183767498</v>
+        <v>7162.517183767499</v>
       </c>
       <c r="E313">
-        <v>7042.620137160937</v>
+        <v>7042.620137160934</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5692,16 +5692,16 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>7959.990607671137</v>
+        <v>7959.990607671139</v>
       </c>
       <c r="C314">
-        <v>7717.584276597873</v>
+        <v>7717.584276597871</v>
       </c>
       <c r="D314">
-        <v>7162.517183767498</v>
+        <v>7162.517183767499</v>
       </c>
       <c r="E314">
-        <v>7042.620137160937</v>
+        <v>7042.620137160934</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5715,7 +5715,7 @@
         <v>30698.35009555607</v>
       </c>
       <c r="D315">
-        <v>30252.89965958885</v>
+        <v>30252.89965958884</v>
       </c>
       <c r="E315">
         <v>35309.0093075207</v>
@@ -5729,10 +5729,10 @@
         <v>37421.45537262486</v>
       </c>
       <c r="C316">
-        <v>36592.22171617943</v>
+        <v>36592.22171617942</v>
       </c>
       <c r="D316">
-        <v>35981.80819852361</v>
+        <v>35981.80819852362</v>
       </c>
       <c r="E316">
         <v>41832.08831506141</v>
@@ -5743,16 +5743,16 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>38155.50373136564</v>
+        <v>38155.50373136563</v>
       </c>
       <c r="C317">
-        <v>37372.3116851064</v>
+        <v>37372.31168510641</v>
       </c>
       <c r="D317">
-        <v>36616.01042074883</v>
+        <v>36616.01042074882</v>
       </c>
       <c r="E317">
-        <v>42342.99163803984</v>
+        <v>42342.99163803981</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5760,13 +5760,13 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>35250.4746847171</v>
+        <v>35250.47468471709</v>
       </c>
       <c r="C318">
         <v>34422.28952230384</v>
       </c>
       <c r="D318">
-        <v>33838.85531380834</v>
+        <v>33838.85531380835</v>
       </c>
       <c r="E318">
         <v>39436.59109025729</v>
@@ -5777,7 +5777,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>31317.56703691957</v>
+        <v>31317.56703691958</v>
       </c>
       <c r="C319">
         <v>30513.63351851518</v>
@@ -5794,13 +5794,13 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>31880.4317235556</v>
+        <v>31880.43172355558</v>
       </c>
       <c r="C320">
-        <v>31102.42872272681</v>
+        <v>31102.42872272682</v>
       </c>
       <c r="D320">
-        <v>30394.74998150716</v>
+        <v>30394.74998150715</v>
       </c>
       <c r="E320">
         <v>35211.85734102241</v>
@@ -5811,16 +5811,16 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>35166.84245845325</v>
+        <v>35166.84245845322</v>
       </c>
       <c r="C321">
         <v>34379.67208143885</v>
       </c>
       <c r="D321">
-        <v>33661.47313151827</v>
+        <v>33661.47313151828</v>
       </c>
       <c r="E321">
-        <v>38979.97622284049</v>
+        <v>38979.9762228405</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5837,7 +5837,7 @@
         <v>28218.95286504127</v>
       </c>
       <c r="E322">
-        <v>32756.92524614529</v>
+        <v>32756.9252461453</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5845,16 +5845,16 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>32293.43710232532</v>
+        <v>32293.4371023253</v>
       </c>
       <c r="C323">
         <v>31533.24680905604</v>
       </c>
       <c r="D323">
-        <v>30806.18572902927</v>
+        <v>30806.18572902928</v>
       </c>
       <c r="E323">
-        <v>35733.96367880194</v>
+        <v>35733.96367880195</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5862,16 +5862,16 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>32293.43710232532</v>
+        <v>32293.4371023253</v>
       </c>
       <c r="C324">
         <v>31533.24680905604</v>
       </c>
       <c r="D324">
-        <v>30806.18572902927</v>
+        <v>30806.18572902928</v>
       </c>
       <c r="E324">
-        <v>35733.96367880194</v>
+        <v>35733.96367880195</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5879,16 +5879,16 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>32293.43710232532</v>
+        <v>32293.4371023253</v>
       </c>
       <c r="C325">
         <v>31533.24680905604</v>
       </c>
       <c r="D325">
-        <v>30806.18572902927</v>
+        <v>30806.18572902928</v>
       </c>
       <c r="E325">
-        <v>35733.96367880194</v>
+        <v>35733.96367880195</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5896,7 +5896,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>36570.35296399199</v>
+        <v>36570.35296399198</v>
       </c>
       <c r="C326">
         <v>35837.93504091357</v>
@@ -5905,7 +5905,7 @@
         <v>35066.40903631983</v>
       </c>
       <c r="E326">
-        <v>40518.89748863866</v>
+        <v>40518.89748863863</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5922,7 +5922,7 @@
         <v>26237.56457063114</v>
       </c>
       <c r="E327">
-        <v>30483.15718980751</v>
+        <v>30483.15718980752</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5939,7 +5939,7 @@
         <v>26237.56457063114</v>
       </c>
       <c r="E328">
-        <v>30483.15718980751</v>
+        <v>30483.15718980752</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5947,16 +5947,16 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>25750.17643359589</v>
+        <v>25750.17643359588</v>
       </c>
       <c r="C329">
-        <v>25043.1239809645</v>
+        <v>25043.12398096452</v>
       </c>
       <c r="D329">
         <v>24461.2281401238</v>
       </c>
       <c r="E329">
-        <v>28459.94583515263</v>
+        <v>28459.94583515261</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5973,7 +5973,7 @@
         <v>26237.56457063114</v>
       </c>
       <c r="E330">
-        <v>30483.15718980751</v>
+        <v>30483.15718980752</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5990,7 +5990,7 @@
         <v>26237.56457063114</v>
       </c>
       <c r="E331">
-        <v>30483.15718980751</v>
+        <v>30483.15718980752</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,16 +5998,16 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>32497.90379109072</v>
+        <v>32497.90379109074</v>
       </c>
       <c r="C332">
-        <v>31621.7950456916</v>
+        <v>31621.79504569159</v>
       </c>
       <c r="D332">
-        <v>31148.34916267314</v>
+        <v>31148.34916267315</v>
       </c>
       <c r="E332">
-        <v>36074.02926891902</v>
+        <v>36074.02926891901</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6015,16 +6015,16 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>34017.6763289673</v>
+        <v>34017.67632896728</v>
       </c>
       <c r="C333">
         <v>33101.29791624648</v>
       </c>
       <c r="D333">
-        <v>32371.04096635071</v>
+        <v>32371.04096635072</v>
       </c>
       <c r="E333">
-        <v>37040.69349044751</v>
+        <v>37040.69349044753</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6032,16 +6032,16 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>36316.43262933653</v>
+        <v>36316.43262933652</v>
       </c>
       <c r="C334">
-        <v>35425.35460234257</v>
+        <v>35425.35460234256</v>
       </c>
       <c r="D334">
-        <v>34636.13027781191</v>
+        <v>34636.13027781192</v>
       </c>
       <c r="E334">
-        <v>39613.79078290818</v>
+        <v>39613.79078290819</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6052,13 +6052,13 @@
         <v>33083.26141856104</v>
       </c>
       <c r="C335">
-        <v>32108.28700979697</v>
+        <v>32108.28700979696</v>
       </c>
       <c r="D335">
         <v>31209.45030131855</v>
       </c>
       <c r="E335">
-        <v>35476.00134820399</v>
+        <v>35476.00134820398</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6069,10 +6069,10 @@
         <v>30241.56205328052</v>
       </c>
       <c r="C336">
-        <v>29368.23583208493</v>
+        <v>29368.23583208495</v>
       </c>
       <c r="D336">
-        <v>28904.12827222712</v>
+        <v>28904.12827222713</v>
       </c>
       <c r="E336">
         <v>33428.05630483208</v>
@@ -6083,16 +6083,16 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>12282.64520546322</v>
+        <v>12282.64520546323</v>
       </c>
       <c r="C337">
-        <v>12825.90041334752</v>
+        <v>12825.90041334753</v>
       </c>
       <c r="D337">
         <v>10991.07494938453</v>
       </c>
       <c r="E337">
-        <v>8951.01772700445</v>
+        <v>8951.017727004448</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6106,10 +6106,10 @@
         <v>10972.52856631146</v>
       </c>
       <c r="D338">
-        <v>9386.251336180459</v>
+        <v>9386.251336180458</v>
       </c>
       <c r="E338">
-        <v>7654.573861721627</v>
+        <v>7654.573861721624</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6117,16 +6117,16 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>12282.64520546322</v>
+        <v>12282.64520546323</v>
       </c>
       <c r="C339">
-        <v>12825.90041334752</v>
+        <v>12825.90041334753</v>
       </c>
       <c r="D339">
         <v>10991.07494938453</v>
       </c>
       <c r="E339">
-        <v>8951.01772700445</v>
+        <v>8951.017727004448</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6134,16 +6134,16 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>9973.770793100599</v>
+        <v>9973.770793100601</v>
       </c>
       <c r="C340">
-        <v>10392.89341906703</v>
+        <v>10392.89341906702</v>
       </c>
       <c r="D340">
         <v>8885.867407476839</v>
       </c>
       <c r="E340">
-        <v>7197.570569254312</v>
+        <v>7197.570569254315</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6151,16 +6151,16 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>9973.770793100599</v>
+        <v>9973.770793100601</v>
       </c>
       <c r="C341">
-        <v>10392.89341906703</v>
+        <v>10392.89341906702</v>
       </c>
       <c r="D341">
         <v>8885.867407476839</v>
       </c>
       <c r="E341">
-        <v>7197.570569254312</v>
+        <v>7197.570569254315</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6174,10 +6174,10 @@
         <v>10588.51498734653</v>
       </c>
       <c r="D342">
-        <v>9078.027366628174</v>
+        <v>9078.027366628176</v>
       </c>
       <c r="E342">
-        <v>7483.963818190769</v>
+        <v>7483.963818190767</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6191,10 +6191,10 @@
         <v>10588.51498734653</v>
       </c>
       <c r="D343">
-        <v>9078.027366628174</v>
+        <v>9078.027366628176</v>
       </c>
       <c r="E343">
-        <v>7483.963818190769</v>
+        <v>7483.963818190767</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6202,16 +6202,16 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>9973.770793100599</v>
+        <v>9973.770793100601</v>
       </c>
       <c r="C344">
-        <v>10392.89341906703</v>
+        <v>10392.89341906702</v>
       </c>
       <c r="D344">
         <v>8885.867407476839</v>
       </c>
       <c r="E344">
-        <v>7197.570569254312</v>
+        <v>7197.570569254315</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6279,7 +6279,7 @@
         <v>12557.52391522152</v>
       </c>
       <c r="E348">
-        <v>9854.257570061856</v>
+        <v>9854.257570061854</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6296,7 +6296,7 @@
         <v>12557.52391522152</v>
       </c>
       <c r="E349">
-        <v>9854.257570061856</v>
+        <v>9854.257570061854</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6313,7 +6313,7 @@
         <v>12557.52391522152</v>
       </c>
       <c r="E350">
-        <v>9854.257570061856</v>
+        <v>9854.257570061854</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6321,16 +6321,16 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>4389.428859994721</v>
+        <v>4389.428859994722</v>
       </c>
       <c r="C351">
-        <v>4547.804313963591</v>
+        <v>4547.804313963592</v>
       </c>
       <c r="D351">
         <v>3933.205006288882</v>
       </c>
       <c r="E351">
-        <v>3221.650902416092</v>
+        <v>3221.650902416091</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6338,16 +6338,16 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>4389.428859994721</v>
+        <v>4389.428859994722</v>
       </c>
       <c r="C352">
-        <v>4547.804313963591</v>
+        <v>4547.804313963592</v>
       </c>
       <c r="D352">
         <v>3933.205006288882</v>
       </c>
       <c r="E352">
-        <v>3221.650902416092</v>
+        <v>3221.650902416091</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6355,13 +6355,13 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>19012.66077562681</v>
+        <v>19012.6607756268</v>
       </c>
       <c r="C353">
         <v>20281.57948694889</v>
       </c>
       <c r="D353">
-        <v>17473.84407537657</v>
+        <v>17473.84407537658</v>
       </c>
       <c r="E353">
         <v>13777.5015792215</v>
@@ -6375,7 +6375,7 @@
         <v>18960.28463092611</v>
       </c>
       <c r="C354">
-        <v>20210.90579065919</v>
+        <v>20210.90579065918</v>
       </c>
       <c r="D354">
         <v>17390.59496399136</v>
@@ -6389,13 +6389,13 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>19012.66077562681</v>
+        <v>19012.6607756268</v>
       </c>
       <c r="C355">
         <v>20281.57948694889</v>
       </c>
       <c r="D355">
-        <v>17473.84407537657</v>
+        <v>17473.84407537658</v>
       </c>
       <c r="E355">
         <v>13777.5015792215</v>
@@ -6406,16 +6406,16 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>12984.44293919919</v>
+        <v>12984.4429391992</v>
       </c>
       <c r="C356">
-        <v>13753.33761724238</v>
+        <v>13753.33761724237</v>
       </c>
       <c r="D356">
         <v>11666.25298794117</v>
       </c>
       <c r="E356">
-        <v>9043.173875540073</v>
+        <v>9043.173875540075</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6423,16 +6423,16 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>12984.44293919919</v>
+        <v>12984.4429391992</v>
       </c>
       <c r="C357">
-        <v>13753.33761724238</v>
+        <v>13753.33761724237</v>
       </c>
       <c r="D357">
         <v>11666.25298794117</v>
       </c>
       <c r="E357">
-        <v>9043.173875540073</v>
+        <v>9043.173875540075</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6440,16 +6440,16 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>12984.44293919919</v>
+        <v>12984.4429391992</v>
       </c>
       <c r="C358">
-        <v>13753.33761724238</v>
+        <v>13753.33761724237</v>
       </c>
       <c r="D358">
         <v>11666.25298794117</v>
       </c>
       <c r="E358">
-        <v>9043.173875540073</v>
+        <v>9043.173875540075</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6457,16 +6457,16 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>4559.951280345348</v>
+        <v>4559.951280345349</v>
       </c>
       <c r="C359">
-        <v>4662.319873964152</v>
+        <v>4662.319873964153</v>
       </c>
       <c r="D359">
         <v>3920.591678158657</v>
       </c>
       <c r="E359">
-        <v>3145.832624387772</v>
+        <v>3145.832624387771</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6474,16 +6474,16 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>4559.951280345348</v>
+        <v>4559.951280345349</v>
       </c>
       <c r="C360">
-        <v>4662.319873964152</v>
+        <v>4662.319873964153</v>
       </c>
       <c r="D360">
         <v>3920.591678158657</v>
       </c>
       <c r="E360">
-        <v>3145.832624387772</v>
+        <v>3145.832624387771</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6491,7 +6491,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>18049.20870849393</v>
+        <v>18049.20870849394</v>
       </c>
       <c r="C361">
         <v>17058.03960673321</v>
@@ -6500,7 +6500,7 @@
         <v>15781.1488108183</v>
       </c>
       <c r="E361">
-        <v>17115.07874594714</v>
+        <v>17115.07874594713</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6508,7 +6508,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>13413.46402619531</v>
+        <v>13413.46402619532</v>
       </c>
       <c r="C362">
         <v>12621.64224380749</v>
@@ -6528,7 +6528,7 @@
         <v>17766.3221356638</v>
       </c>
       <c r="C363">
-        <v>16789.28705970452</v>
+        <v>16789.28705970451</v>
       </c>
       <c r="D363">
         <v>15691.3030180548</v>
@@ -6545,13 +6545,13 @@
         <v>13006.59325285609</v>
       </c>
       <c r="C364">
-        <v>12340.90335623573</v>
+        <v>12340.90335623572</v>
       </c>
       <c r="D364">
         <v>11645.05112733615</v>
       </c>
       <c r="E364">
-        <v>12572.33323860116</v>
+        <v>12572.33323860117</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6562,13 +6562,13 @@
         <v>13006.59325285609</v>
       </c>
       <c r="C365">
-        <v>12340.90335623573</v>
+        <v>12340.90335623572</v>
       </c>
       <c r="D365">
         <v>11645.05112733615</v>
       </c>
       <c r="E365">
-        <v>12572.33323860116</v>
+        <v>12572.33323860117</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6576,16 +6576,16 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>8528.760065926301</v>
+        <v>8528.760065926304</v>
       </c>
       <c r="C366">
-        <v>8086.399326673466</v>
+        <v>8086.399326673463</v>
       </c>
       <c r="D366">
         <v>7593.716321284101</v>
       </c>
       <c r="E366">
-        <v>8044.103437734385</v>
+        <v>8044.103437734383</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6593,16 +6593,16 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>8528.760065926301</v>
+        <v>8528.760065926304</v>
       </c>
       <c r="C367">
-        <v>8086.399326673466</v>
+        <v>8086.399326673463</v>
       </c>
       <c r="D367">
         <v>7593.716321284101</v>
       </c>
       <c r="E367">
-        <v>8044.103437734385</v>
+        <v>8044.103437734383</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6613,10 +6613,10 @@
         <v>10003.54428015807</v>
       </c>
       <c r="C368">
-        <v>9555.409577433749</v>
+        <v>9555.409577433753</v>
       </c>
       <c r="D368">
-        <v>9044.218620104828</v>
+        <v>9044.218620104832</v>
       </c>
       <c r="E368">
         <v>9564.424211021142</v>
@@ -6627,16 +6627,16 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>8528.760065926301</v>
+        <v>8528.760065926304</v>
       </c>
       <c r="C369">
-        <v>8086.399326673466</v>
+        <v>8086.399326673463</v>
       </c>
       <c r="D369">
         <v>7593.716321284101</v>
       </c>
       <c r="E369">
-        <v>8044.103437734385</v>
+        <v>8044.103437734383</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6647,13 +6647,13 @@
         <v>8526.510204447364</v>
       </c>
       <c r="C370">
-        <v>8167.581323084434</v>
+        <v>8167.581323084431</v>
       </c>
       <c r="D370">
-        <v>7581.049755834435</v>
+        <v>7581.049755834437</v>
       </c>
       <c r="E370">
-        <v>7763.402251888072</v>
+        <v>7763.402251888069</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6664,13 +6664,13 @@
         <v>8526.510204447364</v>
       </c>
       <c r="C371">
-        <v>8167.581323084434</v>
+        <v>8167.581323084431</v>
       </c>
       <c r="D371">
-        <v>7581.049755834435</v>
+        <v>7581.049755834437</v>
       </c>
       <c r="E371">
-        <v>7763.402251888072</v>
+        <v>7763.402251888069</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6681,13 +6681,13 @@
         <v>8526.510204447364</v>
       </c>
       <c r="C372">
-        <v>8167.581323084434</v>
+        <v>8167.581323084431</v>
       </c>
       <c r="D372">
-        <v>7581.049755834435</v>
+        <v>7581.049755834437</v>
       </c>
       <c r="E372">
-        <v>7763.402251888072</v>
+        <v>7763.402251888069</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6698,10 +6698,10 @@
         <v>20050.74343135317</v>
       </c>
       <c r="C373">
-        <v>20719.01026464522</v>
+        <v>20719.01026464521</v>
       </c>
       <c r="D373">
-        <v>18098.97782706351</v>
+        <v>18098.97782706352</v>
       </c>
       <c r="E373">
         <v>15734.44602965119</v>
@@ -6718,7 +6718,7 @@
         <v>17644.67167610658</v>
       </c>
       <c r="D374">
-        <v>15353.44019784339</v>
+        <v>15353.4401978434</v>
       </c>
       <c r="E374">
         <v>13413.91565548422</v>
@@ -6732,10 +6732,10 @@
         <v>20050.74343135317</v>
       </c>
       <c r="C375">
-        <v>20719.01026464522</v>
+        <v>20719.01026464521</v>
       </c>
       <c r="D375">
-        <v>18098.97782706351</v>
+        <v>18098.97782706352</v>
       </c>
       <c r="E375">
         <v>15734.44602965119</v>
@@ -6746,7 +6746,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>16563.12140369747</v>
+        <v>16563.12140369748</v>
       </c>
       <c r="C376">
         <v>17086.98890568206</v>
@@ -6763,7 +6763,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>16563.12140369747</v>
+        <v>16563.12140369748</v>
       </c>
       <c r="C377">
         <v>17086.98890568206</v>
@@ -6783,13 +6783,13 @@
         <v>23765.6877957972</v>
       </c>
       <c r="C378">
-        <v>24580.46026865587</v>
+        <v>24580.46026865586</v>
       </c>
       <c r="D378">
         <v>21770.55895985015</v>
       </c>
       <c r="E378">
-        <v>19547.51414369795</v>
+        <v>19547.51414369794</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6800,13 +6800,13 @@
         <v>23765.6877957972</v>
       </c>
       <c r="C379">
-        <v>24580.46026865587</v>
+        <v>24580.46026865586</v>
       </c>
       <c r="D379">
         <v>21770.55895985015</v>
       </c>
       <c r="E379">
-        <v>19547.51414369795</v>
+        <v>19547.51414369794</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6817,13 +6817,13 @@
         <v>23765.6877957972</v>
       </c>
       <c r="C380">
-        <v>24580.46026865587</v>
+        <v>24580.46026865586</v>
       </c>
       <c r="D380">
         <v>21770.55895985015</v>
       </c>
       <c r="E380">
-        <v>19547.51414369795</v>
+        <v>19547.51414369794</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6834,13 +6834,13 @@
         <v>23765.6877957972</v>
       </c>
       <c r="C381">
-        <v>24580.46026865587</v>
+        <v>24580.46026865586</v>
       </c>
       <c r="D381">
         <v>21770.55895985015</v>
       </c>
       <c r="E381">
-        <v>19547.51414369795</v>
+        <v>19547.51414369794</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6857,7 +6857,7 @@
         <v>19655.51328460652</v>
       </c>
       <c r="E382">
-        <v>16660.39095907366</v>
+        <v>16660.39095907367</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6868,13 +6868,13 @@
         <v>22926.19513912053</v>
       </c>
       <c r="C383">
-        <v>22945.42999545651</v>
+        <v>22945.4299954565</v>
       </c>
       <c r="D383">
         <v>20538.58207161368</v>
       </c>
       <c r="E383">
-        <v>19842.9512664171</v>
+        <v>19842.95126641709</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6882,7 +6882,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>20843.0817064836</v>
+        <v>20843.08170648361</v>
       </c>
       <c r="C384">
         <v>21024.52544026055</v>
@@ -6899,16 +6899,16 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>27279.29240445902</v>
+        <v>27279.29240445901</v>
       </c>
       <c r="C385">
         <v>27151.20587782079</v>
       </c>
       <c r="D385">
-        <v>24570.65220441212</v>
+        <v>24570.65220441213</v>
       </c>
       <c r="E385">
-        <v>24423.42884164622</v>
+        <v>24423.42884164621</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6919,10 +6919,10 @@
         <v>14731.72168453633</v>
       </c>
       <c r="C386">
-        <v>14509.6337380871</v>
+        <v>14509.63373808709</v>
       </c>
       <c r="D386">
-        <v>12928.98994294673</v>
+        <v>12928.98994294674</v>
       </c>
       <c r="E386">
         <v>12638.41282744765</v>
@@ -6936,10 +6936,10 @@
         <v>14731.72168453633</v>
       </c>
       <c r="C387">
-        <v>14509.6337380871</v>
+        <v>14509.63373808709</v>
       </c>
       <c r="D387">
-        <v>12928.98994294673</v>
+        <v>12928.98994294674</v>
       </c>
       <c r="E387">
         <v>12638.41282744765</v>
@@ -6956,7 +6956,7 @@
         <v>5043.687393967632</v>
       </c>
       <c r="D388">
-        <v>4771.579951842969</v>
+        <v>4771.579951842972</v>
       </c>
       <c r="E388">
         <v>4254.416971817771</v>
@@ -6967,16 +6967,16 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>3923.567594687009</v>
+        <v>3923.567594687008</v>
       </c>
       <c r="C389">
         <v>4193.698956703908</v>
       </c>
       <c r="D389">
-        <v>3929.427363136326</v>
+        <v>3929.427363136325</v>
       </c>
       <c r="E389">
-        <v>3433.606940280897</v>
+        <v>3433.606940280898</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6984,16 +6984,16 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>3923.567594687009</v>
+        <v>3923.567594687008</v>
       </c>
       <c r="C390">
         <v>4193.698956703908</v>
       </c>
       <c r="D390">
-        <v>3929.427363136326</v>
+        <v>3929.427363136325</v>
       </c>
       <c r="E390">
-        <v>3433.606940280897</v>
+        <v>3433.606940280898</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7007,7 +7007,7 @@
         <v>5043.687393967632</v>
       </c>
       <c r="D391">
-        <v>4771.579951842969</v>
+        <v>4771.579951842972</v>
       </c>
       <c r="E391">
         <v>4254.416971817771</v>
@@ -7018,16 +7018,16 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>3923.567594687009</v>
+        <v>3923.567594687008</v>
       </c>
       <c r="C392">
         <v>4193.698956703908</v>
       </c>
       <c r="D392">
-        <v>3929.427363136326</v>
+        <v>3929.427363136325</v>
       </c>
       <c r="E392">
-        <v>3433.606940280897</v>
+        <v>3433.606940280898</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7035,10 +7035,10 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>3380.06564305237</v>
+        <v>3380.065643052369</v>
       </c>
       <c r="C393">
-        <v>3591.299539180089</v>
+        <v>3591.299539180087</v>
       </c>
       <c r="D393">
         <v>3372.713467363449</v>
@@ -7052,10 +7052,10 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>3380.06564305237</v>
+        <v>3380.065643052369</v>
       </c>
       <c r="C394">
-        <v>3591.299539180089</v>
+        <v>3591.299539180087</v>
       </c>
       <c r="D394">
         <v>3372.713467363449</v>
@@ -7069,7 +7069,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>3843.087539084944</v>
+        <v>3843.087539084945</v>
       </c>
       <c r="C395">
         <v>4051.799240858709</v>
@@ -7078,7 +7078,7 @@
         <v>3822.107800154355</v>
       </c>
       <c r="E395">
-        <v>3446.984253731595</v>
+        <v>3446.984253731594</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7086,7 +7086,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>3843.087539084944</v>
+        <v>3843.087539084945</v>
       </c>
       <c r="C396">
         <v>4051.799240858709</v>
@@ -7095,7 +7095,7 @@
         <v>3822.107800154355</v>
       </c>
       <c r="E396">
-        <v>3446.984253731595</v>
+        <v>3446.984253731594</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7103,10 +7103,10 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>5343.478918397805</v>
+        <v>5343.478918397806</v>
       </c>
       <c r="C397">
-        <v>5645.13748216545</v>
+        <v>5645.137482165448</v>
       </c>
       <c r="D397">
         <v>5368.304112267648</v>
@@ -7120,10 +7120,10 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>5343.478918397805</v>
+        <v>5343.478918397806</v>
       </c>
       <c r="C398">
-        <v>5645.13748216545</v>
+        <v>5645.137482165448</v>
       </c>
       <c r="D398">
         <v>5368.304112267648</v>
@@ -7137,13 +7137,13 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>3953.673295290174</v>
+        <v>3953.673295290175</v>
       </c>
       <c r="C399">
-        <v>3927.026718149483</v>
+        <v>3927.026718149482</v>
       </c>
       <c r="D399">
-        <v>3672.739772998678</v>
+        <v>3672.739772998679</v>
       </c>
       <c r="E399">
         <v>3511.134695487101</v>
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>3619.347589783162</v>
+        <v>3619.347589783163</v>
       </c>
       <c r="C400">
         <v>3617.041185001445</v>
       </c>
       <c r="D400">
-        <v>3402.404015567964</v>
+        <v>3402.404015567963</v>
       </c>
       <c r="E400">
-        <v>3256.647769933058</v>
+        <v>3256.647769933059</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7171,13 +7171,13 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>3953.673295290174</v>
+        <v>3953.673295290175</v>
       </c>
       <c r="C401">
-        <v>3927.026718149483</v>
+        <v>3927.026718149482</v>
       </c>
       <c r="D401">
-        <v>3672.739772998678</v>
+        <v>3672.739772998679</v>
       </c>
       <c r="E401">
         <v>3511.134695487101</v>
@@ -7188,10 +7188,10 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>4165.409624816822</v>
+        <v>4165.409624816823</v>
       </c>
       <c r="C402">
-        <v>4108.956586941715</v>
+        <v>4108.956586941714</v>
       </c>
       <c r="D402">
         <v>3810.238947781574</v>
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>3619.347589783162</v>
+        <v>3619.347589783163</v>
       </c>
       <c r="C403">
         <v>3617.041185001445</v>
       </c>
       <c r="D403">
-        <v>3402.404015567964</v>
+        <v>3402.404015567963</v>
       </c>
       <c r="E403">
-        <v>3256.647769933058</v>
+        <v>3256.647769933059</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7222,13 +7222,13 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>3080.238155588342</v>
+        <v>3080.238155588343</v>
       </c>
       <c r="C404">
-        <v>3094.247797736856</v>
+        <v>3094.247797736857</v>
       </c>
       <c r="D404">
-        <v>2884.711711007143</v>
+        <v>2884.711711007142</v>
       </c>
       <c r="E404">
         <v>2674.57261235333</v>
@@ -7239,13 +7239,13 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>3080.238155588342</v>
+        <v>3080.238155588343</v>
       </c>
       <c r="C405">
-        <v>3094.247797736856</v>
+        <v>3094.247797736857</v>
       </c>
       <c r="D405">
-        <v>2884.711711007143</v>
+        <v>2884.711711007142</v>
       </c>
       <c r="E405">
         <v>2674.57261235333</v>
@@ -7256,13 +7256,13 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>3080.238155588342</v>
+        <v>3080.238155588343</v>
       </c>
       <c r="C406">
-        <v>3094.247797736856</v>
+        <v>3094.247797736857</v>
       </c>
       <c r="D406">
-        <v>2884.711711007143</v>
+        <v>2884.711711007142</v>
       </c>
       <c r="E406">
         <v>2674.57261235333</v>
@@ -7324,16 +7324,16 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>5600.399899015359</v>
+        <v>5600.399899015358</v>
       </c>
       <c r="C410">
-        <v>5450.621926970101</v>
+        <v>5450.621926970102</v>
       </c>
       <c r="D410">
-        <v>5150.685201174944</v>
+        <v>5150.685201174942</v>
       </c>
       <c r="E410">
-        <v>5237.970328048491</v>
+        <v>5237.970328048493</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7341,16 +7341,16 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>4744.407633474093</v>
+        <v>4744.407633474091</v>
       </c>
       <c r="C411">
         <v>4611.887815403441</v>
       </c>
       <c r="D411">
-        <v>4331.060035937675</v>
+        <v>4331.060035937674</v>
       </c>
       <c r="E411">
-        <v>4353.860779409375</v>
+        <v>4353.860779409374</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7358,16 +7358,16 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>4744.407633474093</v>
+        <v>4744.407633474091</v>
       </c>
       <c r="C412">
         <v>4611.887815403441</v>
       </c>
       <c r="D412">
-        <v>4331.060035937675</v>
+        <v>4331.060035937674</v>
       </c>
       <c r="E412">
-        <v>4353.860779409375</v>
+        <v>4353.860779409374</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7375,16 +7375,16 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>4664.913141731469</v>
+        <v>4664.913141731468</v>
       </c>
       <c r="C413">
         <v>4540.347626654643</v>
       </c>
       <c r="D413">
-        <v>4246.004162106183</v>
+        <v>4246.004162106182</v>
       </c>
       <c r="E413">
-        <v>4222.937989044188</v>
+        <v>4222.937989044189</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7392,16 +7392,16 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>5600.399899015359</v>
+        <v>5600.399899015358</v>
       </c>
       <c r="C414">
-        <v>5450.621926970101</v>
+        <v>5450.621926970102</v>
       </c>
       <c r="D414">
-        <v>5150.685201174944</v>
+        <v>5150.685201174942</v>
       </c>
       <c r="E414">
-        <v>5237.970328048491</v>
+        <v>5237.970328048493</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7409,16 +7409,16 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>5505.108988111461</v>
+        <v>5505.108988111463</v>
       </c>
       <c r="C415">
-        <v>5360.696069791949</v>
+        <v>5360.696069791947</v>
       </c>
       <c r="D415">
-        <v>5045.056124338297</v>
+        <v>5045.056124338298</v>
       </c>
       <c r="E415">
-        <v>5079.349386214066</v>
+        <v>5079.349386214065</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7426,16 +7426,16 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>5505.108988111461</v>
+        <v>5505.108988111463</v>
       </c>
       <c r="C416">
-        <v>5360.696069791949</v>
+        <v>5360.696069791947</v>
       </c>
       <c r="D416">
-        <v>5045.056124338297</v>
+        <v>5045.056124338298</v>
       </c>
       <c r="E416">
-        <v>5079.349386214066</v>
+        <v>5079.349386214065</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7443,13 +7443,13 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>4889.703020542413</v>
+        <v>4889.703020542414</v>
       </c>
       <c r="C417">
-        <v>4797.398067320712</v>
+        <v>4797.398067320713</v>
       </c>
       <c r="D417">
-        <v>4458.449010069307</v>
+        <v>4458.449010069308</v>
       </c>
       <c r="E417">
         <v>4304.292245187115</v>
@@ -7460,13 +7460,13 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>4889.703020542413</v>
+        <v>4889.703020542414</v>
       </c>
       <c r="C418">
-        <v>4797.398067320712</v>
+        <v>4797.398067320713</v>
       </c>
       <c r="D418">
-        <v>4458.449010069307</v>
+        <v>4458.449010069308</v>
       </c>
       <c r="E418">
         <v>4304.292245187115</v>
@@ -7480,13 +7480,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C419">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D419">
         <v>8567.006584452531</v>
       </c>
       <c r="E419">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7497,13 +7497,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C420">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D420">
         <v>8567.006584452531</v>
       </c>
       <c r="E420">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7514,13 +7514,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C421">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D421">
         <v>8567.006584452531</v>
       </c>
       <c r="E421">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7531,13 +7531,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C422">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D422">
         <v>8567.006584452531</v>
       </c>
       <c r="E422">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7548,13 +7548,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C423">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D423">
         <v>8567.006584452531</v>
       </c>
       <c r="E423">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7565,13 +7565,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C424">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D424">
         <v>8567.006584452531</v>
       </c>
       <c r="E424">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7582,13 +7582,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C425">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D425">
         <v>8567.006584452531</v>
       </c>
       <c r="E425">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7599,13 +7599,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C426">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D426">
         <v>8567.006584452531</v>
       </c>
       <c r="E426">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7616,13 +7616,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C427">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D427">
         <v>8567.006584452531</v>
       </c>
       <c r="E427">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7633,13 +7633,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C428">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D428">
         <v>8567.006584452531</v>
       </c>
       <c r="E428">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7650,13 +7650,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C429">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D429">
         <v>8567.006584452531</v>
       </c>
       <c r="E429">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7667,13 +7667,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C430">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D430">
         <v>8567.006584452531</v>
       </c>
       <c r="E430">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7684,13 +7684,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C431">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D431">
         <v>8567.006584452531</v>
       </c>
       <c r="E431">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7701,13 +7701,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C432">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D432">
         <v>8567.006584452531</v>
       </c>
       <c r="E432">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7718,13 +7718,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C433">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D433">
         <v>8567.006584452531</v>
       </c>
       <c r="E433">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7732,13 +7732,13 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>7105.841000622492</v>
+        <v>7105.84100062249</v>
       </c>
       <c r="C434">
-        <v>7115.674379925089</v>
+        <v>7115.674379925091</v>
       </c>
       <c r="D434">
-        <v>6657.82936462985</v>
+        <v>6657.829364629852</v>
       </c>
       <c r="E434">
         <v>6439.264884349662</v>
@@ -7752,13 +7752,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C435">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D435">
         <v>8567.006584452531</v>
       </c>
       <c r="E435">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7766,16 +7766,16 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>5370.369040602923</v>
+        <v>5370.369040602921</v>
       </c>
       <c r="C436">
         <v>5444.309806315288</v>
       </c>
       <c r="D436">
-        <v>5057.896123869886</v>
+        <v>5057.896123869885</v>
       </c>
       <c r="E436">
-        <v>4728.488306461984</v>
+        <v>4728.488306461985</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7783,16 +7783,16 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>4585.955747398599</v>
+        <v>4585.9557473986</v>
       </c>
       <c r="C437">
-        <v>4598.923406115746</v>
+        <v>4598.923406115745</v>
       </c>
       <c r="D437">
-        <v>4251.323410257801</v>
+        <v>4251.323410257802</v>
       </c>
       <c r="E437">
-        <v>3995.029832941905</v>
+        <v>3995.029832941904</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7800,16 +7800,16 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>4585.955747398599</v>
+        <v>4585.9557473986</v>
       </c>
       <c r="C438">
-        <v>4598.923406115746</v>
+        <v>4598.923406115745</v>
       </c>
       <c r="D438">
-        <v>4251.323410257801</v>
+        <v>4251.323410257802</v>
       </c>
       <c r="E438">
-        <v>3995.029832941905</v>
+        <v>3995.029832941904</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7817,16 +7817,16 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>4585.955747398599</v>
+        <v>4585.9557473986</v>
       </c>
       <c r="C439">
-        <v>4598.923406115746</v>
+        <v>4598.923406115745</v>
       </c>
       <c r="D439">
-        <v>4251.323410257801</v>
+        <v>4251.323410257802</v>
       </c>
       <c r="E439">
-        <v>3995.029832941905</v>
+        <v>3995.029832941904</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7834,16 +7834,16 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>4585.955747398599</v>
+        <v>4585.9557473986</v>
       </c>
       <c r="C440">
-        <v>4598.923406115746</v>
+        <v>4598.923406115745</v>
       </c>
       <c r="D440">
-        <v>4251.323410257801</v>
+        <v>4251.323410257802</v>
       </c>
       <c r="E440">
-        <v>3995.029832941905</v>
+        <v>3995.029832941904</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -7851,16 +7851,16 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>4585.955747398599</v>
+        <v>4585.9557473986</v>
       </c>
       <c r="C441">
-        <v>4598.923406115746</v>
+        <v>4598.923406115745</v>
       </c>
       <c r="D441">
-        <v>4251.323410257801</v>
+        <v>4251.323410257802</v>
       </c>
       <c r="E441">
-        <v>3995.029832941905</v>
+        <v>3995.029832941904</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7868,16 +7868,16 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>4585.955747398599</v>
+        <v>4585.9557473986</v>
       </c>
       <c r="C442">
-        <v>4598.923406115746</v>
+        <v>4598.923406115745</v>
       </c>
       <c r="D442">
-        <v>4251.323410257801</v>
+        <v>4251.323410257802</v>
       </c>
       <c r="E442">
-        <v>3995.029832941905</v>
+        <v>3995.029832941904</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7885,16 +7885,16 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>4585.955747398599</v>
+        <v>4585.9557473986</v>
       </c>
       <c r="C443">
-        <v>4598.923406115746</v>
+        <v>4598.923406115745</v>
       </c>
       <c r="D443">
-        <v>4251.323410257801</v>
+        <v>4251.323410257802</v>
       </c>
       <c r="E443">
-        <v>3995.029832941905</v>
+        <v>3995.029832941904</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7902,16 +7902,16 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>4585.955747398599</v>
+        <v>4585.9557473986</v>
       </c>
       <c r="C444">
-        <v>4598.923406115746</v>
+        <v>4598.923406115745</v>
       </c>
       <c r="D444">
-        <v>4251.323410257801</v>
+        <v>4251.323410257802</v>
       </c>
       <c r="E444">
-        <v>3995.029832941905</v>
+        <v>3995.029832941904</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7919,16 +7919,16 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>4585.955747398599</v>
+        <v>4585.9557473986</v>
       </c>
       <c r="C445">
-        <v>4598.923406115746</v>
+        <v>4598.923406115745</v>
       </c>
       <c r="D445">
-        <v>4251.323410257801</v>
+        <v>4251.323410257802</v>
       </c>
       <c r="E445">
-        <v>3995.029832941905</v>
+        <v>3995.029832941904</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7936,16 +7936,16 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>4585.955747398599</v>
+        <v>4585.9557473986</v>
       </c>
       <c r="C446">
-        <v>4598.923406115746</v>
+        <v>4598.923406115745</v>
       </c>
       <c r="D446">
-        <v>4251.323410257801</v>
+        <v>4251.323410257802</v>
       </c>
       <c r="E446">
-        <v>3995.029832941905</v>
+        <v>3995.029832941904</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7953,16 +7953,16 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>4585.955747398599</v>
+        <v>4585.9557473986</v>
       </c>
       <c r="C447">
-        <v>4598.923406115746</v>
+        <v>4598.923406115745</v>
       </c>
       <c r="D447">
-        <v>4251.323410257801</v>
+        <v>4251.323410257802</v>
       </c>
       <c r="E447">
-        <v>3995.029832941905</v>
+        <v>3995.029832941904</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -8228,13 +8228,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C463">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D463">
         <v>8567.006584452531</v>
       </c>
       <c r="E463">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8245,13 +8245,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C464">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D464">
         <v>8567.006584452531</v>
       </c>
       <c r="E464">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8259,13 +8259,13 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>7105.841000622492</v>
+        <v>7105.84100062249</v>
       </c>
       <c r="C465">
-        <v>7115.674379925089</v>
+        <v>7115.674379925091</v>
       </c>
       <c r="D465">
-        <v>6657.82936462985</v>
+        <v>6657.829364629852</v>
       </c>
       <c r="E465">
         <v>6439.264884349662</v>
@@ -8276,13 +8276,13 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>7105.841000622492</v>
+        <v>7105.84100062249</v>
       </c>
       <c r="C466">
-        <v>7115.674379925089</v>
+        <v>7115.674379925091</v>
       </c>
       <c r="D466">
-        <v>6657.82936462985</v>
+        <v>6657.829364629852</v>
       </c>
       <c r="E466">
         <v>6439.264884349662</v>
@@ -8296,13 +8296,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C467">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D467">
         <v>8567.006584452531</v>
       </c>
       <c r="E467">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8364,13 +8364,13 @@
         <v>9124.706533400557</v>
       </c>
       <c r="C471">
-        <v>9066.278411468869</v>
+        <v>9066.278411468873</v>
       </c>
       <c r="D471">
         <v>8567.006584452531</v>
       </c>
       <c r="E471">
-        <v>8530.607262770285</v>
+        <v>8530.607262770287</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8395,13 +8395,13 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>7105.841000622492</v>
+        <v>7105.84100062249</v>
       </c>
       <c r="C473">
-        <v>7115.674379925089</v>
+        <v>7115.674379925091</v>
       </c>
       <c r="D473">
-        <v>6657.82936462985</v>
+        <v>6657.829364629852</v>
       </c>
       <c r="E473">
         <v>6439.264884349662</v>
@@ -8412,13 +8412,13 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>7105.841000622492</v>
+        <v>7105.84100062249</v>
       </c>
       <c r="C474">
-        <v>7115.674379925089</v>
+        <v>7115.674379925091</v>
       </c>
       <c r="D474">
-        <v>6657.82936462985</v>
+        <v>6657.829364629852</v>
       </c>
       <c r="E474">
         <v>6439.264884349662</v>
@@ -8429,16 +8429,16 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>5370.369040602923</v>
+        <v>5370.369040602921</v>
       </c>
       <c r="C475">
         <v>5444.309806315288</v>
       </c>
       <c r="D475">
-        <v>5057.896123869886</v>
+        <v>5057.896123869885</v>
       </c>
       <c r="E475">
-        <v>4728.488306461984</v>
+        <v>4728.488306461985</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8446,7 +8446,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>6079.229679093598</v>
+        <v>6079.229679093601</v>
       </c>
       <c r="C476">
         <v>6035.763600817912</v>
@@ -8455,7 +8455,7 @@
         <v>5623.59952749691</v>
       </c>
       <c r="E476">
-        <v>5422.601907837084</v>
+        <v>5422.601907837085</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8463,7 +8463,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>6079.229679093598</v>
+        <v>6079.229679093601</v>
       </c>
       <c r="C477">
         <v>6035.763600817912</v>
@@ -8472,7 +8472,7 @@
         <v>5623.59952749691</v>
       </c>
       <c r="E477">
-        <v>5422.601907837084</v>
+        <v>5422.601907837085</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8480,13 +8480,13 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>6704.637852462404</v>
+        <v>6704.637852462406</v>
       </c>
       <c r="C478">
         <v>7010.020836573594</v>
       </c>
       <c r="D478">
-        <v>6693.313752293979</v>
+        <v>6693.313752293977</v>
       </c>
       <c r="E478">
         <v>6275.65910583091</v>
@@ -8500,10 +8500,10 @@
         <v>5736.050032675002</v>
       </c>
       <c r="C479">
-        <v>6052.913744863584</v>
+        <v>6052.913744863581</v>
       </c>
       <c r="D479">
-        <v>5743.136982768369</v>
+        <v>5743.13698276837</v>
       </c>
       <c r="E479">
         <v>5234.959487820297</v>
@@ -8514,13 +8514,13 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>6704.637852462404</v>
+        <v>6704.637852462406</v>
       </c>
       <c r="C480">
         <v>7010.020836573594</v>
       </c>
       <c r="D480">
-        <v>6693.313752293979</v>
+        <v>6693.313752293977</v>
       </c>
       <c r="E480">
         <v>6275.65910583091</v>
@@ -8531,13 +8531,13 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>6704.637852462404</v>
+        <v>6704.637852462406</v>
       </c>
       <c r="C481">
         <v>7010.020836573594</v>
       </c>
       <c r="D481">
-        <v>6693.313752293979</v>
+        <v>6693.313752293977</v>
       </c>
       <c r="E481">
         <v>6275.65910583091</v>
@@ -8548,13 +8548,13 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>6704.637852462404</v>
+        <v>6704.637852462406</v>
       </c>
       <c r="C482">
         <v>7010.020836573594</v>
       </c>
       <c r="D482">
-        <v>6693.313752293979</v>
+        <v>6693.313752293977</v>
       </c>
       <c r="E482">
         <v>6275.65910583091</v>
@@ -8565,13 +8565,13 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>6704.637852462404</v>
+        <v>6704.637852462406</v>
       </c>
       <c r="C483">
         <v>7010.020836573594</v>
       </c>
       <c r="D483">
-        <v>6693.313752293979</v>
+        <v>6693.313752293977</v>
       </c>
       <c r="E483">
         <v>6275.65910583091</v>
@@ -8582,13 +8582,13 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>6704.637852462404</v>
+        <v>6704.637852462406</v>
       </c>
       <c r="C484">
         <v>7010.020836573594</v>
       </c>
       <c r="D484">
-        <v>6693.313752293979</v>
+        <v>6693.313752293977</v>
       </c>
       <c r="E484">
         <v>6275.65910583091</v>
@@ -8599,13 +8599,13 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>6704.637852462404</v>
+        <v>6704.637852462406</v>
       </c>
       <c r="C485">
         <v>7010.020836573594</v>
       </c>
       <c r="D485">
-        <v>6693.313752293979</v>
+        <v>6693.313752293977</v>
       </c>
       <c r="E485">
         <v>6275.65910583091</v>
@@ -8616,7 +8616,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>6216.619471865011</v>
+        <v>6216.619471865015</v>
       </c>
       <c r="C486">
         <v>6525.793062947967</v>
@@ -8633,13 +8633,13 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>6470.512218374765</v>
+        <v>6470.512218374766</v>
       </c>
       <c r="C487">
         <v>6772.36553832571</v>
       </c>
       <c r="D487">
-        <v>6468.235029371408</v>
+        <v>6468.235029371407</v>
       </c>
       <c r="E487">
         <v>6059.568886188175</v>
@@ -8650,16 +8650,16 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>6470.740790653752</v>
+        <v>6470.74079065375</v>
       </c>
       <c r="C488">
-        <v>6714.908789486309</v>
+        <v>6714.90878948631</v>
       </c>
       <c r="D488">
-        <v>6406.644261474053</v>
+        <v>6406.644261474054</v>
       </c>
       <c r="E488">
-        <v>6076.867814791019</v>
+        <v>6076.867814791017</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8667,16 +8667,16 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>6470.740790653752</v>
+        <v>6470.74079065375</v>
       </c>
       <c r="C489">
-        <v>6714.908789486309</v>
+        <v>6714.90878948631</v>
       </c>
       <c r="D489">
-        <v>6406.644261474053</v>
+        <v>6406.644261474054</v>
       </c>
       <c r="E489">
-        <v>6076.867814791019</v>
+        <v>6076.867814791017</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8687,13 +8687,13 @@
         <v>8602.326099472813</v>
       </c>
       <c r="C490">
-        <v>8804.460286151863</v>
+        <v>8804.460286151862</v>
       </c>
       <c r="D490">
-        <v>8394.909147930322</v>
+        <v>8394.909147930324</v>
       </c>
       <c r="E490">
-        <v>8175.194014056076</v>
+        <v>8175.194014056081</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8704,13 +8704,13 @@
         <v>8602.326099472813</v>
       </c>
       <c r="C491">
-        <v>8804.460286151863</v>
+        <v>8804.460286151862</v>
       </c>
       <c r="D491">
-        <v>8394.909147930322</v>
+        <v>8394.909147930324</v>
       </c>
       <c r="E491">
-        <v>8175.194014056076</v>
+        <v>8175.194014056081</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8721,13 +8721,13 @@
         <v>8602.326099472813</v>
       </c>
       <c r="C492">
-        <v>8804.460286151863</v>
+        <v>8804.460286151862</v>
       </c>
       <c r="D492">
-        <v>8394.909147930322</v>
+        <v>8394.909147930324</v>
       </c>
       <c r="E492">
-        <v>8175.194014056076</v>
+        <v>8175.194014056081</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8738,13 +8738,13 @@
         <v>8602.326099472813</v>
       </c>
       <c r="C493">
-        <v>8804.460286151863</v>
+        <v>8804.460286151862</v>
       </c>
       <c r="D493">
-        <v>8394.909147930322</v>
+        <v>8394.909147930324</v>
       </c>
       <c r="E493">
-        <v>8175.194014056076</v>
+        <v>8175.194014056081</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8755,13 +8755,13 @@
         <v>8602.326099472813</v>
       </c>
       <c r="C494">
-        <v>8804.460286151863</v>
+        <v>8804.460286151862</v>
       </c>
       <c r="D494">
-        <v>8394.909147930322</v>
+        <v>8394.909147930324</v>
       </c>
       <c r="E494">
-        <v>8175.194014056076</v>
+        <v>8175.194014056081</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8772,13 +8772,13 @@
         <v>6975.789197872569</v>
       </c>
       <c r="C495">
-        <v>7215.099437160469</v>
+        <v>7215.099437160468</v>
       </c>
       <c r="D495">
         <v>6833.184304040896</v>
       </c>
       <c r="E495">
-        <v>6435.160544569611</v>
+        <v>6435.160544569613</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8786,16 +8786,16 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>8321.459910549069</v>
+        <v>8321.459910549067</v>
       </c>
       <c r="C496">
-        <v>8468.046558615912</v>
+        <v>8468.046558615908</v>
       </c>
       <c r="D496">
-        <v>8042.636735180093</v>
+        <v>8042.636735180092</v>
       </c>
       <c r="E496">
-        <v>7855.619525293629</v>
+        <v>7855.619525293628</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8806,13 +8806,13 @@
         <v>6975.789197872569</v>
       </c>
       <c r="C497">
-        <v>7215.099437160469</v>
+        <v>7215.099437160468</v>
       </c>
       <c r="D497">
         <v>6833.184304040896</v>
       </c>
       <c r="E497">
-        <v>6435.160544569611</v>
+        <v>6435.160544569613</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8820,7 +8820,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>10482.65212874073</v>
+        <v>10482.65212874072</v>
       </c>
       <c r="C498">
         <v>10447.94555854466</v>
@@ -8837,7 +8837,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>10482.65212874073</v>
+        <v>10482.65212874072</v>
       </c>
       <c r="C499">
         <v>10447.94555854466</v>
@@ -8854,7 +8854,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>10482.65212874073</v>
+        <v>10482.65212874072</v>
       </c>
       <c r="C500">
         <v>10447.94555854466</v>
@@ -8871,16 +8871,16 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>8145.200365518028</v>
+        <v>8145.20036551803</v>
       </c>
       <c r="C501">
-        <v>8277.900986484865</v>
+        <v>8277.900986484867</v>
       </c>
       <c r="D501">
-        <v>7924.726494261903</v>
+        <v>7924.726494261904</v>
       </c>
       <c r="E501">
-        <v>7901.614090593839</v>
+        <v>7901.614090593838</v>
       </c>
     </row>
   </sheetData>
